--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -53,169 +53,170 @@
     <t>Explosion_Shock</t>
   </si>
   <si>
+    <t>기본 근거리 공격</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Near Enemy</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>다단 근거리 공격</t>
+  </si>
+  <si>
+    <t>관통 근거리 공격</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>기본 원거리 공격</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>다단 원거리 공격</t>
+  </si>
+  <si>
+    <t>범위 원거리 공격</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>폭파 원거리 공격</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>랜덤 타겟 원거리 공격_1 (적 마왕 포함)</t>
+  </si>
+  <si>
+    <t>Random Enemy</t>
+  </si>
+  <si>
+    <t>랜덤 타겟 원거리 공격_2 (적 크리쳐만)</t>
+  </si>
+  <si>
+    <t>Random Enemy Creature</t>
+  </si>
+  <si>
+    <t>파이어 볼 (마법)</t>
+  </si>
+  <si>
+    <t>Select Enemy</t>
+  </si>
+  <si>
+    <t>블리자드 (전체 마법)</t>
+  </si>
+  <si>
+    <t>All Enemy</t>
+  </si>
+  <si>
+    <t>파이어 월 (크치쳐 전체 마법)</t>
+  </si>
+  <si>
+    <t>All Enemy Creature</t>
+  </si>
+  <si>
+    <t>힐링 (타겟 힐링 마법)</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>Select Friendly</t>
+  </si>
+  <si>
+    <t>공격력 강화 (아군 전체)</t>
+  </si>
+  <si>
+    <t>All Friendly Creature</t>
+  </si>
+  <si>
+    <t>소드맨 기본 근거리 공격</t>
+  </si>
+  <si>
+    <t>소드맨 기본 근거리 강공격</t>
+  </si>
+  <si>
+    <t>소드맨 방어력 증가</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>소드맨 방어력 파괴</t>
+  </si>
+  <si>
+    <t>DeBuff</t>
+  </si>
+  <si>
+    <t>아쳐 기본 사격</t>
+  </si>
+  <si>
+    <t>아쳐 범위 사격</t>
+  </si>
+  <si>
+    <t>아쳐 충전 사격</t>
+  </si>
+  <si>
+    <t>광전사 공격</t>
+  </si>
+  <si>
+    <t>광전사 다단 공격</t>
+  </si>
+  <si>
+    <t>광전사 공격력 증가</t>
+  </si>
+  <si>
+    <t>광전사 전체 공격</t>
+  </si>
+  <si>
+    <t>카드_아귀 기본 공격</t>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+  </si>
+  <si>
+    <t>금광</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Select Field</t>
+  </si>
+  <si>
+    <t>풍요의 부적</t>
+  </si>
+  <si>
+    <t>성령의 가호</t>
+  </si>
+  <si>
+    <t>레프리칸의 금단지</t>
+  </si>
+  <si>
+    <t>90004, 90005</t>
+  </si>
+  <si>
+    <t>Atk_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ability_id</t>
-  </si>
-  <si>
-    <t>기본 근거리 공격</t>
-  </si>
-  <si>
-    <t>Melee</t>
-  </si>
-  <si>
-    <t>Near Enemy</t>
-  </si>
-  <si>
-    <t>Automatic</t>
-  </si>
-  <si>
-    <t>다단 근거리 공격</t>
-  </si>
-  <si>
-    <t>관통 근거리 공격</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>기본 원거리 공격</t>
-  </si>
-  <si>
-    <t>Ranged</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>다단 원거리 공격</t>
-  </si>
-  <si>
-    <t>범위 원거리 공격</t>
-  </si>
-  <si>
-    <t>3, 4</t>
-  </si>
-  <si>
-    <t>폭파 원거리 공격</t>
-  </si>
-  <si>
-    <t>Explosion</t>
-  </si>
-  <si>
-    <t>랜덤 타겟 원거리 공격_1 (적 마왕 포함)</t>
-  </si>
-  <si>
-    <t>Random Enemy</t>
-  </si>
-  <si>
-    <t>랜덤 타겟 원거리 공격_2 (적 크리쳐만)</t>
-  </si>
-  <si>
-    <t>Random Enemy Creature</t>
-  </si>
-  <si>
-    <t>파이어 볼 (마법)</t>
-  </si>
-  <si>
-    <t>Select Enemy</t>
-  </si>
-  <si>
-    <t>블리자드 (전체 마법)</t>
-  </si>
-  <si>
-    <t>All Enemy</t>
-  </si>
-  <si>
-    <t>파이어 월 (크치쳐 전체 마법)</t>
-  </si>
-  <si>
-    <t>All Enemy Creature</t>
-  </si>
-  <si>
-    <t>힐링 (타겟 힐링 마법)</t>
-  </si>
-  <si>
-    <t>Friendly</t>
-  </si>
-  <si>
-    <t>Select Friendly</t>
-  </si>
-  <si>
-    <t>공격력 강화 (아군 전체)</t>
-  </si>
-  <si>
-    <t>All Friendly Creature</t>
-  </si>
-  <si>
-    <t>소드맨 기본 근거리 공격</t>
-  </si>
-  <si>
-    <t>소드맨 기본 근거리 강공격</t>
-  </si>
-  <si>
-    <t>소드맨 방어력 증가</t>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>소드맨 방어력 파괴</t>
-  </si>
-  <si>
-    <t>DeBuff</t>
-  </si>
-  <si>
-    <t>아쳐 기본 사격</t>
-  </si>
-  <si>
-    <t>아쳐 범위 사격</t>
-  </si>
-  <si>
-    <t>아쳐 충전 사격</t>
-  </si>
-  <si>
-    <t>광전사 공격</t>
-  </si>
-  <si>
-    <t>광전사 다단 공격</t>
-  </si>
-  <si>
-    <t>광전사 공격력 증가</t>
-  </si>
-  <si>
-    <t>광전사 전체 공격</t>
-  </si>
-  <si>
-    <t>카드_아귀 기본 공격</t>
-  </si>
-  <si>
-    <t>파이어 볼</t>
-  </si>
-  <si>
-    <t>금광</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>Select Field</t>
-  </si>
-  <si>
-    <t>풍요의 부적</t>
-  </si>
-  <si>
-    <t>성령의 가호</t>
-  </si>
-  <si>
-    <t>레프리칸의 금단지</t>
-  </si>
-  <si>
-    <t>90004, 90005</t>
-  </si>
-  <si>
-    <t>Atk_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,22 +675,27 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -703,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -721,24 +727,24 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.399999999999999">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -755,21 +761,21 @@
         <v>70001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.399999999999999">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -788,24 +794,24 @@
         <v>70002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.399999999999999">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -819,21 +825,21 @@
         <v>70003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.399999999999999">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -850,21 +856,21 @@
         <v>70004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.399999999999999">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
@@ -883,24 +889,24 @@
         <v>70005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.399999999999999">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -914,21 +920,21 @@
         <v>70006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
         <v>4</v>
@@ -947,21 +953,21 @@
         <v>70007</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.399999999999999">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -976,21 +982,21 @@
         <v>70008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.399999999999999">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
@@ -1007,21 +1013,21 @@
         <v>70009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.399999999999999">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="3">
         <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1038,21 +1044,21 @@
         <v>70010</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.399999999999999">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="3">
         <v>1011</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
@@ -1069,21 +1075,21 @@
         <v>70011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.399999999999999">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="3">
         <v>1012</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -1098,21 +1104,21 @@
         <v>70012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.399999999999999">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="3">
         <v>1013</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
@@ -1127,21 +1133,21 @@
         <v>70013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.399999999999999">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="3">
         <v>1014</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
@@ -1156,21 +1162,21 @@
         <v>70014</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.399999999999999">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="3">
         <v>2001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1187,21 +1193,21 @@
         <v>70015</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17.399999999999999">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="3">
         <v>2002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1218,21 +1224,21 @@
         <v>70016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.399999999999999">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1245,21 +1251,21 @@
         <v>70017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.399999999999999">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1272,21 +1278,21 @@
         <v>70018</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.399999999999999">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="3">
         <v>3001</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
@@ -1303,24 +1309,24 @@
         <v>70019</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.399999999999999">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="3">
         <v>3002</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -1334,21 +1340,21 @@
         <v>70020</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.399999999999999">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="3">
         <v>3003</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3">
         <v>4</v>
@@ -1365,21 +1371,21 @@
         <v>70021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.399999999999999">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="A23" s="3">
         <v>4001</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -1396,21 +1402,21 @@
         <v>70022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.399999999999999">
+    <row r="24" spans="1:11" ht="16.5">
       <c r="A24" s="3">
         <v>4002</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -1427,24 +1433,24 @@
         <v>70023</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17.399999999999999">
+    <row r="25" spans="1:11" ht="16.5">
       <c r="A25" s="3">
         <v>4003</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -1458,21 +1464,21 @@
         <v>70024</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17.399999999999999">
+    <row r="26" spans="1:11" ht="16.5">
       <c r="A26" s="3">
         <v>4004</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
@@ -1487,21 +1493,21 @@
         <v>70025</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17.399999999999999">
+    <row r="27" spans="1:11" ht="16.5">
       <c r="A27" s="3">
         <v>90001</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1518,21 +1524,21 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.399999999999999">
+    <row r="28" spans="1:11" ht="16.5">
       <c r="A28" s="3">
         <v>90002</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1549,21 +1555,21 @@
         <v>90002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17.399999999999999">
+    <row r="29" spans="1:11" ht="16.5">
       <c r="A29" s="3">
         <v>90003</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1576,21 +1582,21 @@
         <v>90003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17.399999999999999">
+    <row r="30" spans="1:11" ht="16.5">
       <c r="A30" s="3">
         <v>90004</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1599,23 +1605,25 @@
         <v>100</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.399999999999999">
+      <c r="K30" s="3">
+        <v>90004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5">
       <c r="A31" s="3">
         <v>90005</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1624,23 +1632,25 @@
         <v>100</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.399999999999999">
+      <c r="K31" s="3">
+        <v>90005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5">
       <c r="A32" s="3">
         <v>90006</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1650,7 +1660,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>Ability_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranged</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,8 +679,8 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1532,7 +1536,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>29</v>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -222,13 +222,45 @@
   <si>
     <t>Ranged</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 채우기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 소모하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -250,11 +282,19 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -310,22 +350,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -724,7 +770,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -735,936 +781,990 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>100</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>100</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>70001</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>0.5</v>
       </c>
-      <c r="I3" s="3">
-        <v>100</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="I3" s="4">
+        <v>100</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>70002</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>100</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>100</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>70003</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>70004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>0.5</v>
       </c>
-      <c r="I6" s="3">
-        <v>100</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="I6" s="4">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>70005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>100</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
         <v>70006</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>100</v>
       </c>
       <c r="J8" s="5">
         <v>-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>70007</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <v>100</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <v>70008</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>100</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>70009</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>1010</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>100</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>70010</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>1011</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>0.5</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="I12" s="4">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>70011</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>1012</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>100</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <v>70012</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>1013</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>100</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>70013</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>1014</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>100</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <v>70014</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>2001</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>100</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>100</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>70015</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2002</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
         <v>50</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <v>70016</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>2003</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
         <v>70017</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2004</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>100</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>100</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
         <v>70018</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>3001</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>100</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <v>70019</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>3002</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>100</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <v>70020</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>3003</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>100</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
         <v>70021</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>4001</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>100</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>70022</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>4002</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
         <v>50</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <v>70023</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>4003</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>100</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3">
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>100</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
         <v>70024</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>4004</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3">
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>100</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <v>70025</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>90001</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <v>100</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
         <v>90001</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>90002</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
         <v>100</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
         <v>90002</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>90003</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
         <v>100</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <v>90003</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>90004</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
         <v>100</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <v>90004</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>90005</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4">
         <v>100</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <v>90005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>90006</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
         <v>100</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5">
+      <c r="A33" s="7">
+        <v>100001</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>100</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5">
+      <c r="A34" s="7">
+        <v>100002</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>100</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="7">
+        <v>100002</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -220,47 +220,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ranged</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>만복도 채우기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automatic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>만복도 소모하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automatic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -280,13 +250,6 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -353,25 +316,25 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1582,7 +1545,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>29</v>
@@ -1718,16 +1681,16 @@
         <v>100001</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1745,16 +1708,16 @@
         <v>100002</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -224,13 +224,33 @@
   </si>
   <si>
     <t>만복도 소모하기</t>
+  </si>
+  <si>
+    <t>카드 손으로 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 뽑을 카드로 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 그레이브로 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -259,8 +279,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +310,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -313,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +368,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1730,6 +1766,87 @@
         <v>100002</v>
       </c>
     </row>
+    <row r="35" spans="1:11" ht="16.5">
+      <c r="A35" s="7">
+        <v>100011</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>100</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
+        <v>100011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5">
+      <c r="A36" s="7">
+        <v>100012</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>100</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
+        <v>100012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5">
+      <c r="A37" s="7">
+        <v>100013</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <v>100</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7">
+        <v>100013</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -209,9 +209,6 @@
     <t>레프리칸의 금단지</t>
   </si>
   <si>
-    <t>90004, 90005</t>
-  </si>
-  <si>
     <t>Atk_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +241,10 @@
   <si>
     <t>Self</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90006, 90007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -725,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:K37"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -758,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -776,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5">
@@ -1709,7 +1710,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5">
@@ -1717,7 +1718,7 @@
         <v>100001</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>42</v>
@@ -1744,7 +1745,7 @@
         <v>100002</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>45</v>
@@ -1771,13 +1772,13 @@
         <v>100011</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>12</v>
@@ -1798,13 +1799,13 @@
         <v>100012</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -1825,13 +1826,13 @@
         <v>100013</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>12</v>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -245,6 +245,10 @@
   <si>
     <t>90006, 90007</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 삼키기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -722,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1848,6 +1852,33 @@
         <v>100013</v>
       </c>
     </row>
+    <row r="38" spans="1:11" ht="16.5">
+      <c r="A38" s="9">
+        <v>100014</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9">
+        <v>100</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9">
+        <v>100026</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C8075-1454-4149-B326-38B4869997F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -249,12 +250,20 @@
   <si>
     <t>카드 삼키기</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -351,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,19 +369,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,15 +728,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
@@ -1718,165 +1721,229 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>100001</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7">
-        <v>100</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="7">
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
+        <v>100</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="4">
         <v>100001</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5">
-      <c r="A34" s="7">
+      <c r="A34" s="4">
         <v>100002</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7">
-        <v>100</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="7">
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>100</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4">
         <v>100002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5">
-      <c r="A35" s="7">
+      <c r="A35" s="4">
         <v>100011</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7">
-        <v>100</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7">
+      <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>100</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
         <v>100011</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>100012</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7">
-        <v>100</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7">
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>100</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
         <v>100012</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5">
-      <c r="A37" s="7">
+      <c r="A37" s="4">
         <v>100013</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7">
-        <v>100</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7">
+      <c r="E37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>100</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
         <v>100013</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>100014</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
-        <v>100</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9">
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>100</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7">
         <v>100026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5">
+      <c r="A39" s="4">
+        <v>8100100</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>100</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <v>81001000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5">
+      <c r="A40" s="4">
+        <v>8100200</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="4">
+        <v>100</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <v>81002000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C8075-1454-4149-B326-38B4869997F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720056A-1911-43BA-821D-8D663C536C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81001000, 81001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81002000, 81002001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -748,7 +756,7 @@
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1"/>
     <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -1909,8 +1917,8 @@
         <v>100</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4">
-        <v>81001000</v>
+      <c r="K39" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5">
@@ -1942,8 +1950,8 @@
         <v>100</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4">
-        <v>81002000</v>
+      <c r="K40" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720056A-1911-43BA-821D-8D663C536C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC307B94-3955-4DED-89C7-DFBFE2DAFEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="1380" windowWidth="31950" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>81002000, 81002001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,27 +744,27 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -795,7 +799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -826,7 +830,7 @@
         <v>70001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -859,7 +863,7 @@
         <v>70002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -890,7 +894,7 @@
         <v>70003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -921,7 +925,7 @@
         <v>70004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -954,7 +958,7 @@
         <v>70005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -985,7 +989,7 @@
         <v>70006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>70007</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>70008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>70009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1109,7 +1113,7 @@
         <v>70010</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>70011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="4">
         <v>1012</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>70012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="4">
         <v>1013</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>70013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="4">
         <v>1014</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>70014</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="4">
         <v>2001</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>70015</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="4">
         <v>2002</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>70016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="4">
         <v>2003</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>70017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="4">
         <v>2004</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>70018</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="4">
         <v>3001</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>70019</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="4">
         <v>3002</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>70020</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="4">
         <v>3003</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>70021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5">
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="4">
         <v>4001</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>70022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="17">
       <c r="A24" s="4">
         <v>4002</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>70023</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5">
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="4">
         <v>4003</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>70024</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="4">
         <v>4004</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>70025</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5">
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="4">
         <v>90001</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5">
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="4">
         <v>90002</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>90002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5">
+    <row r="29" spans="1:11" ht="17">
       <c r="A29" s="4">
         <v>90003</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>90003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5">
+    <row r="30" spans="1:11" ht="17">
       <c r="A30" s="4">
         <v>90004</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>90004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5">
+    <row r="31" spans="1:11" ht="17">
       <c r="A31" s="4">
         <v>90005</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>90005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5">
+    <row r="32" spans="1:11" ht="17">
       <c r="A32" s="4">
         <v>90006</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5">
+    <row r="33" spans="1:11" ht="17">
       <c r="A33" s="4">
         <v>100001</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5">
+    <row r="34" spans="1:11" ht="17">
       <c r="A34" s="4">
         <v>100002</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5">
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="4">
         <v>100011</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>100011</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5">
+    <row r="36" spans="1:11" ht="17">
       <c r="A36" s="4">
         <v>100012</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>100012</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5">
+    <row r="37" spans="1:11" ht="17">
       <c r="A37" s="4">
         <v>100013</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>100013</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5">
+    <row r="38" spans="1:11" ht="17">
       <c r="A38" s="7">
         <v>100014</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>100026</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5">
+    <row r="39" spans="1:11" ht="17">
       <c r="A39" s="4">
         <v>8100100</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>15</v>
@@ -1921,7 +1925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5">
+    <row r="40" spans="1:11" ht="17">
       <c r="A40" s="4">
         <v>8100200</v>
       </c>
@@ -1935,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC307B94-3955-4DED-89C7-DFBFE2DAFEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28057FC6-C62C-49C4-800C-F39D7179508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1380" windowWidth="31950" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -269,6 +269,30 @@
   </si>
   <si>
     <t>Select Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핥기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노려보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르고 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81005000, 81005001, 81005002, 81005003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81004000, 81004001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +416,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,30 +777,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1"/>
-    <col min="10" max="10" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -795,11 +831,11 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -826,11 +862,11 @@
         <v>100</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="K2" s="9">
         <v>70001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -859,11 +895,11 @@
         <v>100</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="K3" s="9">
         <v>70002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -890,11 +926,11 @@
         <v>100</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="K4" s="9">
         <v>70003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -921,11 +957,11 @@
         <v>100</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="K5" s="9">
         <v>70004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -954,11 +990,11 @@
         <v>100</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="K6" s="9">
         <v>70005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -985,11 +1021,11 @@
         <v>100</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="K7" s="9">
         <v>70006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -1018,11 +1054,11 @@
       <c r="J8" s="5">
         <v>-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="9">
         <v>70007</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -1047,11 +1083,11 @@
         <v>100</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="4">
+      <c r="K9" s="9">
         <v>70008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -1078,11 +1114,11 @@
         <v>100</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="4">
+      <c r="K10" s="9">
         <v>70009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1109,11 +1145,11 @@
         <v>100</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="K11" s="9">
         <v>70010</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1140,11 +1176,11 @@
         <v>100</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="K12" s="9">
         <v>70011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="4">
         <v>1012</v>
       </c>
@@ -1169,11 +1205,11 @@
         <v>100</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="K13" s="9">
         <v>70012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="4">
         <v>1013</v>
       </c>
@@ -1198,11 +1234,11 @@
         <v>100</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="K14" s="9">
         <v>70013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="4">
         <v>1014</v>
       </c>
@@ -1227,11 +1263,11 @@
         <v>100</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="K15" s="9">
         <v>70014</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="4">
         <v>2001</v>
       </c>
@@ -1258,11 +1294,11 @@
         <v>100</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="K16" s="9">
         <v>70015</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="A17" s="4">
         <v>2002</v>
       </c>
@@ -1289,11 +1325,11 @@
         <v>50</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="K17" s="9">
         <v>70016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="A18" s="4">
         <v>2003</v>
       </c>
@@ -1316,11 +1352,11 @@
         <v>100</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="K18" s="9">
         <v>70017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="A19" s="4">
         <v>2004</v>
       </c>
@@ -1343,11 +1379,11 @@
         <v>100</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="K19" s="9">
         <v>70018</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11" ht="16.5">
       <c r="A20" s="4">
         <v>3001</v>
       </c>
@@ -1374,11 +1410,11 @@
         <v>100</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="4">
+      <c r="K20" s="9">
         <v>70019</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11" ht="16.5">
       <c r="A21" s="4">
         <v>3002</v>
       </c>
@@ -1405,11 +1441,11 @@
         <v>100</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="K21" s="9">
         <v>70020</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="A22" s="4">
         <v>3003</v>
       </c>
@@ -1436,11 +1472,11 @@
         <v>100</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="K22" s="9">
         <v>70021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="A23" s="4">
         <v>4001</v>
       </c>
@@ -1467,11 +1503,11 @@
         <v>100</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="K23" s="9">
         <v>70022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:11" ht="16.5">
       <c r="A24" s="4">
         <v>4002</v>
       </c>
@@ -1498,11 +1534,11 @@
         <v>50</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="K24" s="9">
         <v>70023</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:11" ht="16.5">
       <c r="A25" s="4">
         <v>4003</v>
       </c>
@@ -1529,11 +1565,11 @@
         <v>100</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4">
+      <c r="K25" s="9">
         <v>70024</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:11" ht="16.5">
       <c r="A26" s="4">
         <v>4004</v>
       </c>
@@ -1558,11 +1594,11 @@
         <v>100</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4">
+      <c r="K26" s="9">
         <v>70025</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17">
+    <row r="27" spans="1:11" ht="16.5">
       <c r="A27" s="4">
         <v>90001</v>
       </c>
@@ -1589,11 +1625,11 @@
         <v>100</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="K27" s="9">
         <v>90001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17">
+    <row r="28" spans="1:11" ht="16.5">
       <c r="A28" s="4">
         <v>90002</v>
       </c>
@@ -1620,11 +1656,11 @@
         <v>100</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="4">
+      <c r="K28" s="9">
         <v>90002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17">
+    <row r="29" spans="1:11" ht="16.5">
       <c r="A29" s="4">
         <v>90003</v>
       </c>
@@ -1647,11 +1683,11 @@
         <v>100</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="4">
+      <c r="K29" s="9">
         <v>90003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17">
+    <row r="30" spans="1:11" ht="16.5">
       <c r="A30" s="4">
         <v>90004</v>
       </c>
@@ -1674,11 +1710,11 @@
         <v>100</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="4">
+      <c r="K30" s="9">
         <v>90004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17">
+    <row r="31" spans="1:11" ht="16.5">
       <c r="A31" s="4">
         <v>90005</v>
       </c>
@@ -1701,11 +1737,11 @@
         <v>100</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="4">
+      <c r="K31" s="9">
         <v>90005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17">
+    <row r="32" spans="1:11" ht="16.5">
       <c r="A32" s="4">
         <v>90006</v>
       </c>
@@ -1728,11 +1764,11 @@
         <v>100</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11" ht="16.5">
       <c r="A33" s="4">
         <v>100001</v>
       </c>
@@ -1755,11 +1791,11 @@
         <v>100</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="4">
+      <c r="K33" s="9">
         <v>100001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:11" ht="16.5">
       <c r="A34" s="4">
         <v>100002</v>
       </c>
@@ -1782,11 +1818,11 @@
         <v>100</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="4">
+      <c r="K34" s="9">
         <v>100002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:11" ht="16.5">
       <c r="A35" s="4">
         <v>100011</v>
       </c>
@@ -1809,11 +1845,11 @@
         <v>100</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="K35" s="9">
         <v>100011</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:11" ht="16.5">
       <c r="A36" s="4">
         <v>100012</v>
       </c>
@@ -1836,11 +1872,11 @@
         <v>100</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="4">
+      <c r="K36" s="9">
         <v>100012</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:11" ht="16.5">
       <c r="A37" s="4">
         <v>100013</v>
       </c>
@@ -1863,11 +1899,11 @@
         <v>100</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4">
+      <c r="K37" s="9">
         <v>100013</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:11" ht="16.5">
       <c r="A38" s="7">
         <v>100014</v>
       </c>
@@ -1890,11 +1926,11 @@
         <v>100</v>
       </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="7">
+      <c r="K38" s="10">
         <v>100026</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17">
+    <row r="39" spans="1:11" ht="16.5">
       <c r="A39" s="4">
         <v>8100100</v>
       </c>
@@ -1921,11 +1957,11 @@
         <v>100</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17">
+    <row r="40" spans="1:11" ht="16.5">
       <c r="A40" s="4">
         <v>8100200</v>
       </c>
@@ -1954,8 +1990,101 @@
         <v>100</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="9" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5">
+      <c r="A41" s="4">
+        <v>8100300</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>100</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="9">
+        <v>81003000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5">
+      <c r="A42" s="4">
+        <v>8100400</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <v>100</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="33">
+      <c r="A43" s="4">
+        <v>8100500</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>100</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28057FC6-C62C-49C4-800C-F39D7179508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD3949C-C681-47EB-A9A9-31EFDC8159A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -293,6 +293,22 @@
   </si>
   <si>
     <t>81004000, 81004001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81006000, 81006001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 기본 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2087,6 +2103,68 @@
         <v>81</v>
       </c>
     </row>
+    <row r="44" spans="1:11" ht="16.5">
+      <c r="A44" s="4">
+        <v>8100600</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <v>100</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5">
+      <c r="A45" s="4">
+        <v>8100700</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4">
+        <v>100</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="9">
+        <v>81007000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD3949C-C681-47EB-A9A9-31EFDC8159A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC20D33A-C700-471D-8591-6B1193EC9E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -309,6 +309,26 @@
   </si>
   <si>
     <t>임프 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 궁수 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹주름 위 기본 행동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌충 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Friendly Creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Near Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,11 +813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1625,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>12</v>
@@ -1714,7 +1734,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>
@@ -2163,6 +2183,91 @@
       <c r="J45" s="4"/>
       <c r="K45" s="9">
         <v>81007000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5">
+      <c r="A46" s="4">
+        <v>8100800</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <v>100</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="9">
+        <v>81008000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5">
+      <c r="A47" s="4">
+        <v>8100900</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4">
+        <v>100</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="9">
+        <v>81009000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5">
+      <c r="A48" s="4">
+        <v>8101000</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <v>100</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="9">
+        <v>81010000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC20D33A-C700-471D-8591-6B1193EC9E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EE9BE-BB9C-4BA7-921C-C1D7D26A0676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -329,6 +329,22 @@
   </si>
   <si>
     <t>Near Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81011000, 81011001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81012000, 81012001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2270,6 +2286,68 @@
         <v>81010000</v>
       </c>
     </row>
+    <row r="49" spans="1:11" ht="16.5">
+      <c r="A49" s="4">
+        <v>8101100</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4">
+        <v>100</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5">
+      <c r="A50" s="4">
+        <v>8101200</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4">
+        <v>100</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EE9BE-BB9C-4BA7-921C-C1D7D26A0676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9810B7DB-FCF0-4A2A-AC8F-E64802A9E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="102">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>Atk_Range</t>
   </si>
   <si>
     <t>Atk_Cnt</t>
@@ -345,6 +342,34 @@
   </si>
   <si>
     <t>81012000, 81012001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81013000, 81013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>81014000, 81014001, 81014002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>81015000, 81015001, 81015002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk_Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,6 +588,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFB5E6A2"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -829,11 +866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -866,25 +903,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5">
@@ -892,16 +929,16 @@
         <v>1001</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -923,16 +960,16 @@
         <v>1002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -956,19 +993,19 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -987,16 +1024,16 @@
         <v>1004</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4">
         <v>4</v>
@@ -1018,16 +1055,16 @@
         <v>1005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -1051,19 +1088,19 @@
         <v>1006</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1082,16 +1119,16 @@
         <v>1007</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -1115,16 +1152,16 @@
         <v>1008</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
@@ -1144,16 +1181,16 @@
         <v>1009</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -1175,16 +1212,16 @@
         <v>1010</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1206,16 +1243,16 @@
         <v>1011</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -1237,16 +1274,16 @@
         <v>1012</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -1266,16 +1303,16 @@
         <v>1013</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
@@ -1295,16 +1332,16 @@
         <v>1014</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
@@ -1324,16 +1361,16 @@
         <v>2001</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1355,16 +1392,16 @@
         <v>2002</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1386,16 +1423,16 @@
         <v>2003</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1413,16 +1450,16 @@
         <v>2004</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1440,16 +1477,16 @@
         <v>3001</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4">
         <v>4</v>
@@ -1471,19 +1508,19 @@
         <v>3002</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -1502,16 +1539,16 @@
         <v>3003</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
@@ -1533,16 +1570,16 @@
         <v>4001</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1564,16 +1601,16 @@
         <v>4002</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1595,19 +1632,19 @@
         <v>4003</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -1626,16 +1663,16 @@
         <v>4004</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
@@ -1655,16 +1692,16 @@
         <v>90001</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1686,16 +1723,16 @@
         <v>90002</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1717,16 +1754,16 @@
         <v>90003</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1744,16 +1781,16 @@
         <v>90004</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1771,16 +1808,16 @@
         <v>90005</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1798,16 +1835,16 @@
         <v>90006</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1817,7 +1854,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5">
@@ -1825,16 +1862,16 @@
         <v>100001</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1852,16 +1889,16 @@
         <v>100002</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1879,16 +1916,16 @@
         <v>100011</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1906,16 +1943,16 @@
         <v>100012</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1933,16 +1970,16 @@
         <v>100013</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1960,16 +1997,16 @@
         <v>100014</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1987,19 +2024,19 @@
         <v>8100100</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -2010,7 +2047,7 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5">
@@ -2018,16 +2055,16 @@
         <v>8100200</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -2043,7 +2080,7 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5">
@@ -2051,16 +2088,16 @@
         <v>8100300</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2082,16 +2119,16 @@
         <v>8100400</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2105,7 +2142,7 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33">
@@ -2113,16 +2150,16 @@
         <v>8100500</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2136,7 +2173,7 @@
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5">
@@ -2144,19 +2181,19 @@
         <v>8100600</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -2167,7 +2204,7 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5">
@@ -2175,16 +2212,16 @@
         <v>8100700</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2206,16 +2243,16 @@
         <v>8100800</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="4">
         <v>2</v>
@@ -2237,16 +2274,16 @@
         <v>8100900</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2264,16 +2301,16 @@
         <v>8101000</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2291,16 +2328,16 @@
         <v>8101100</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2314,7 +2351,7 @@
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5">
@@ -2322,19 +2359,19 @@
         <v>8101200</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
@@ -2345,7 +2382,96 @@
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5">
+      <c r="A51" s="4">
+        <v>8101300</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <v>100</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="9" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="33">
+      <c r="A52" s="4">
+        <v>8101400</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <v>100</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="33">
+      <c r="A53" s="4">
+        <v>8101500</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <v>100</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9810B7DB-FCF0-4A2A-AC8F-E64802A9E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB39E56-C9D6-4E0F-B79C-01BD56D2F17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="105">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>Atk_Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81007000, 81007001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,11 +878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2474,6 +2486,68 @@
         <v>100</v>
       </c>
     </row>
+    <row r="54" spans="1:11" ht="16.5">
+      <c r="A54" s="4">
+        <v>8101600</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <v>100</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5">
+      <c r="A55" s="4">
+        <v>8101700</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <v>100</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB39E56-C9D6-4E0F-B79C-01BD56D2F17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5536465-11F7-4A9B-B0A6-BF60FBECC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="122">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -381,7 +381,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>81007000, 81007001</t>
+    <t>크게 한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81016000, 81016001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81017000, 81017001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81018000, 81018001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81019000, 81019001, 81019002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81020000, 81020001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골동품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81023000, 81023001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81024000, 81024001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81025000, 81025001, 81025002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무라마사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81026000, 81026001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,30 +946,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1"/>
-    <col min="10" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -936,7 +1004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -967,7 +1035,7 @@
         <v>70001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -1000,7 +1068,7 @@
         <v>70002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -1031,7 +1099,7 @@
         <v>70003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -1062,7 +1130,7 @@
         <v>70004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -1095,7 +1163,7 @@
         <v>70005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -1126,7 +1194,7 @@
         <v>70006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -1159,7 +1227,7 @@
         <v>70007</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -1188,7 +1256,7 @@
         <v>70008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -1219,7 +1287,7 @@
         <v>70009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1250,7 +1318,7 @@
         <v>70010</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1281,7 +1349,7 @@
         <v>70011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="4">
         <v>1012</v>
       </c>
@@ -1310,7 +1378,7 @@
         <v>70012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="4">
         <v>1013</v>
       </c>
@@ -1339,7 +1407,7 @@
         <v>70013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="4">
         <v>1014</v>
       </c>
@@ -1368,7 +1436,7 @@
         <v>70014</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="4">
         <v>2001</v>
       </c>
@@ -1399,7 +1467,7 @@
         <v>70015</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="4">
         <v>2002</v>
       </c>
@@ -1430,7 +1498,7 @@
         <v>70016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="4">
         <v>2003</v>
       </c>
@@ -1457,7 +1525,7 @@
         <v>70017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="4">
         <v>2004</v>
       </c>
@@ -1484,7 +1552,7 @@
         <v>70018</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="4">
         <v>3001</v>
       </c>
@@ -1515,7 +1583,7 @@
         <v>70019</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="4">
         <v>3002</v>
       </c>
@@ -1546,7 +1614,7 @@
         <v>70020</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="4">
         <v>3003</v>
       </c>
@@ -1577,7 +1645,7 @@
         <v>70021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5">
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="4">
         <v>4001</v>
       </c>
@@ -1608,7 +1676,7 @@
         <v>70022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="17">
       <c r="A24" s="4">
         <v>4002</v>
       </c>
@@ -1639,7 +1707,7 @@
         <v>70023</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5">
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="4">
         <v>4003</v>
       </c>
@@ -1670,7 +1738,7 @@
         <v>70024</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="4">
         <v>4004</v>
       </c>
@@ -1699,7 +1767,7 @@
         <v>70025</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5">
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="4">
         <v>90001</v>
       </c>
@@ -1730,7 +1798,7 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5">
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="4">
         <v>90002</v>
       </c>
@@ -1761,7 +1829,7 @@
         <v>90002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5">
+    <row r="29" spans="1:11" ht="17">
       <c r="A29" s="4">
         <v>90003</v>
       </c>
@@ -1788,7 +1856,7 @@
         <v>90003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5">
+    <row r="30" spans="1:11" ht="17">
       <c r="A30" s="4">
         <v>90004</v>
       </c>
@@ -1815,7 +1883,7 @@
         <v>90004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5">
+    <row r="31" spans="1:11" ht="17">
       <c r="A31" s="4">
         <v>90005</v>
       </c>
@@ -1842,7 +1910,7 @@
         <v>90005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5">
+    <row r="32" spans="1:11" ht="17">
       <c r="A32" s="4">
         <v>90006</v>
       </c>
@@ -1869,7 +1937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5">
+    <row r="33" spans="1:11" ht="17">
       <c r="A33" s="4">
         <v>100001</v>
       </c>
@@ -1896,7 +1964,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5">
+    <row r="34" spans="1:11" ht="17">
       <c r="A34" s="4">
         <v>100002</v>
       </c>
@@ -1923,7 +1991,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5">
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="4">
         <v>100011</v>
       </c>
@@ -1950,7 +2018,7 @@
         <v>100011</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5">
+    <row r="36" spans="1:11" ht="17">
       <c r="A36" s="4">
         <v>100012</v>
       </c>
@@ -1977,7 +2045,7 @@
         <v>100012</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5">
+    <row r="37" spans="1:11" ht="17">
       <c r="A37" s="4">
         <v>100013</v>
       </c>
@@ -2004,7 +2072,7 @@
         <v>100013</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5">
+    <row r="38" spans="1:11" ht="17">
       <c r="A38" s="7">
         <v>100014</v>
       </c>
@@ -2031,7 +2099,7 @@
         <v>100026</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5">
+    <row r="39" spans="1:11" ht="17">
       <c r="A39" s="4">
         <v>8100100</v>
       </c>
@@ -2062,7 +2130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5">
+    <row r="40" spans="1:11" ht="17">
       <c r="A40" s="4">
         <v>8100200</v>
       </c>
@@ -2095,7 +2163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5">
+    <row r="41" spans="1:11" ht="17">
       <c r="A41" s="4">
         <v>8100300</v>
       </c>
@@ -2126,7 +2194,7 @@
         <v>81003000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5">
+    <row r="42" spans="1:11" ht="17">
       <c r="A42" s="4">
         <v>8100400</v>
       </c>
@@ -2157,7 +2225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="33">
+    <row r="43" spans="1:11" ht="34">
       <c r="A43" s="4">
         <v>8100500</v>
       </c>
@@ -2188,7 +2256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16.5">
+    <row r="44" spans="1:11" ht="17">
       <c r="A44" s="4">
         <v>8100600</v>
       </c>
@@ -2219,7 +2287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.5">
+    <row r="45" spans="1:11" ht="17">
       <c r="A45" s="4">
         <v>8100700</v>
       </c>
@@ -2250,7 +2318,7 @@
         <v>81007000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16.5">
+    <row r="46" spans="1:11" ht="17">
       <c r="A46" s="4">
         <v>8100800</v>
       </c>
@@ -2281,7 +2349,7 @@
         <v>81008000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16.5">
+    <row r="47" spans="1:11" ht="17">
       <c r="A47" s="4">
         <v>8100900</v>
       </c>
@@ -2308,7 +2376,7 @@
         <v>81009000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16.5">
+    <row r="48" spans="1:11" ht="17">
       <c r="A48" s="4">
         <v>8101000</v>
       </c>
@@ -2335,7 +2403,7 @@
         <v>81010000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5">
+    <row r="49" spans="1:11" ht="17">
       <c r="A49" s="4">
         <v>8101100</v>
       </c>
@@ -2366,7 +2434,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5">
+    <row r="50" spans="1:11" ht="17">
       <c r="A50" s="4">
         <v>8101200</v>
       </c>
@@ -2397,7 +2465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5">
+    <row r="51" spans="1:11" ht="17">
       <c r="A51" s="4">
         <v>8101300</v>
       </c>
@@ -2424,7 +2492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="33">
+    <row r="52" spans="1:11" ht="34">
       <c r="A52" s="4">
         <v>8101400</v>
       </c>
@@ -2455,7 +2523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="33">
+    <row r="53" spans="1:11" ht="34">
       <c r="A53" s="4">
         <v>8101500</v>
       </c>
@@ -2486,7 +2554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16.5">
+    <row r="54" spans="1:11" ht="17">
       <c r="A54" s="4">
         <v>8101600</v>
       </c>
@@ -2514,10 +2582,10 @@
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="17">
       <c r="A55" s="4">
         <v>8101700</v>
       </c>
@@ -2545,7 +2613,266 @@
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="17">
+      <c r="A56" s="4">
+        <v>8101800</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>104</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <v>100</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="34">
+      <c r="A57" s="4">
+        <v>8101900</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
+        <v>100</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="17">
+      <c r="A58" s="4">
+        <v>8102000</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4">
+        <v>100</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="17">
+      <c r="A59" s="4">
+        <v>8102100</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
+        <v>100</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="9">
+        <v>81021000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17">
+      <c r="A60" s="4">
+        <v>8102200</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4">
+        <v>100</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="9">
+        <v>81022000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17">
+      <c r="A61" s="4">
+        <v>8102300</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4">
+        <v>100</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17">
+      <c r="A62" s="4">
+        <v>8102400</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
+        <v>100</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="34">
+      <c r="A63" s="4">
+        <v>8102500</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4">
+        <v>100</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17">
+      <c r="A64" s="4">
+        <v>8102600</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4">
+        <v>100</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5536465-11F7-4A9B-B0A6-BF60FBECC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4FD9C-21EB-4760-81FE-52E9BFE749A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="128">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -450,6 +450,30 @@
   </si>
   <si>
     <t>81026000, 81026001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헛구역질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81029000, 81029001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대의 명약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 아귀 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +555,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -559,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,6 +624,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,11 +982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2875,6 +2911,147 @@
         <v>121</v>
       </c>
     </row>
+    <row r="65" spans="1:11" ht="17">
+      <c r="A65" s="13">
+        <v>8102700</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13">
+        <v>100</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14">
+        <v>81027000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17">
+      <c r="A66" s="13">
+        <v>8102800</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13">
+        <v>100</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14">
+        <v>81028000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="17">
+      <c r="A67" s="4">
+        <v>8102900</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4">
+        <v>100</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="K67" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17">
+      <c r="A68" s="4">
+        <v>8103000</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4">
+        <v>100</v>
+      </c>
+      <c r="J68" s="4"/>
+      <c r="K68" s="9">
+        <v>81030000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="17">
+      <c r="A69" s="4">
+        <v>8103100</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4">
+        <v>100</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="9">
+        <v>81031000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F4FD9C-21EB-4760-81FE-52E9BFE749A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC45E85-2D6A-4551-A932-1931A12ED49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>81015000, 81015001, 81015002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Atk_Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,6 +470,10 @@
   </si>
   <si>
     <t>지옥 아귀 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSameTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,30 +982,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="1"/>
-    <col min="10" max="10" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="1"/>
+    <col min="9" max="9" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="1"/>
+    <col min="11" max="11" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:12" ht="17.399999999999999">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1022,25 +1023,28 @@
         <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:12" ht="17.399999999999999">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -1059,19 +1063,20 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>100</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="9">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>100</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="9">
         <v>70001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:12" ht="17.399999999999999">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -1090,21 +1095,22 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.5</v>
       </c>
-      <c r="I3" s="4">
-        <v>100</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="9">
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="9">
         <v>70002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:12" ht="17.399999999999999">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -1123,19 +1129,20 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>100</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="9">
         <v>70003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:12" ht="17.399999999999999">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -1154,19 +1161,20 @@
       <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>100</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="9">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9">
         <v>70004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:12" ht="17.399999999999999">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -1185,21 +1193,22 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.5</v>
       </c>
-      <c r="I6" s="4">
-        <v>100</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9">
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="9">
         <v>70005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:12" ht="17.399999999999999">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -1218,19 +1227,20 @@
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>100</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>100</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="9">
         <v>70006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:12" ht="17.399999999999999">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -1249,21 +1259,22 @@
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>100</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5">
         <v>-2</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>70007</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:12" ht="17.399999999999999">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -1280,19 +1291,20 @@
         <v>11</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>100</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="9">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="9">
         <v>70008</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:12" ht="17.399999999999999">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -1309,21 +1321,22 @@
         <v>11</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.5</v>
       </c>
-      <c r="I10" s="4">
-        <v>100</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="9">
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="9">
         <v>70009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:12" ht="17.399999999999999">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1342,19 +1355,20 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>100</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="9">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>100</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9">
         <v>70010</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:12" ht="17.399999999999999">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1371,21 +1385,22 @@
         <v>11</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.5</v>
       </c>
-      <c r="I12" s="4">
-        <v>100</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9">
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="9">
         <v>70011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:12" ht="17.399999999999999">
       <c r="A13" s="4">
         <v>1012</v>
       </c>
@@ -1402,19 +1417,20 @@
         <v>11</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <v>100</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="9">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="9">
         <v>70012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:12" ht="17.399999999999999">
       <c r="A14" s="4">
         <v>1013</v>
       </c>
@@ -1431,19 +1447,20 @@
         <v>35</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <v>100</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="9">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="9">
         <v>70013</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:12" ht="17.399999999999999">
       <c r="A15" s="4">
         <v>1014</v>
       </c>
@@ -1460,19 +1477,20 @@
         <v>11</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>100</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="9">
         <v>70014</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:12" ht="17.399999999999999">
       <c r="A16" s="4">
         <v>2001</v>
       </c>
@@ -1491,19 +1509,20 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>100</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="9">
         <v>70015</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:12" ht="17.399999999999999">
       <c r="A17" s="4">
         <v>2002</v>
       </c>
@@ -1522,19 +1541,20 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>50</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9">
+      <c r="K17" s="4"/>
+      <c r="L17" s="9">
         <v>70016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:12" ht="17.399999999999999">
       <c r="A18" s="4">
         <v>2003</v>
       </c>
@@ -1553,15 +1573,16 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>100</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="9">
         <v>70017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:12" ht="17.399999999999999">
       <c r="A19" s="4">
         <v>2004</v>
       </c>
@@ -1580,15 +1601,16 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>100</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="9">
         <v>70018</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:12" ht="17.399999999999999">
       <c r="A20" s="4">
         <v>3001</v>
       </c>
@@ -1607,19 +1629,20 @@
       <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>100</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="9">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="9">
         <v>70019</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:12" ht="17.399999999999999">
       <c r="A21" s="4">
         <v>3002</v>
       </c>
@@ -1638,19 +1661,20 @@
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>100</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="9">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="9">
         <v>70020</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:12" ht="17.399999999999999">
       <c r="A22" s="4">
         <v>3003</v>
       </c>
@@ -1669,19 +1693,20 @@
       <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>100</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="9">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="9">
         <v>70021</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17">
+    <row r="23" spans="1:12" ht="17.399999999999999">
       <c r="A23" s="4">
         <v>4001</v>
       </c>
@@ -1700,19 +1725,20 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <v>100</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="9">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="9">
         <v>70022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:12" ht="17.399999999999999">
       <c r="A24" s="4">
         <v>4002</v>
       </c>
@@ -1731,19 +1757,20 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>50</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="9">
+      <c r="K24" s="4"/>
+      <c r="L24" s="9">
         <v>70023</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:12" ht="17.399999999999999">
       <c r="A25" s="4">
         <v>4003</v>
       </c>
@@ -1762,19 +1789,20 @@
       <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
-        <v>100</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="9">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>100</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="9">
         <v>70024</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:12" ht="17.399999999999999">
       <c r="A26" s="4">
         <v>4004</v>
       </c>
@@ -1791,19 +1819,20 @@
         <v>11</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
-        <v>100</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="9">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="9">
         <v>70025</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17">
+    <row r="27" spans="1:12" ht="17.399999999999999">
       <c r="A27" s="4">
         <v>90001</v>
       </c>
@@ -1822,19 +1851,20 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
-        <v>100</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="9">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <v>100</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="9">
         <v>90001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17">
+    <row r="28" spans="1:12" ht="17.399999999999999">
       <c r="A28" s="4">
         <v>90002</v>
       </c>
@@ -1853,19 +1883,20 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
-        <v>100</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="9">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="9">
         <v>90002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17">
+    <row r="29" spans="1:12" ht="17.399999999999999">
       <c r="A29" s="4">
         <v>90003</v>
       </c>
@@ -1884,15 +1915,16 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4">
-        <v>100</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="9">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="9">
         <v>90003</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17">
+    <row r="30" spans="1:12" ht="17.399999999999999">
       <c r="A30" s="4">
         <v>90004</v>
       </c>
@@ -1911,15 +1943,16 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4">
-        <v>100</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="9">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
+        <v>100</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="9">
         <v>90004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17">
+    <row r="31" spans="1:12" ht="17.399999999999999">
       <c r="A31" s="4">
         <v>90005</v>
       </c>
@@ -1938,15 +1971,16 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4">
-        <v>100</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="9">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
+        <v>100</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="9">
         <v>90005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17">
+    <row r="32" spans="1:12" ht="17.399999999999999">
       <c r="A32" s="4">
         <v>90006</v>
       </c>
@@ -1965,15 +1999,16 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4">
-        <v>100</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="9" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
+        <v>100</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:12" ht="17.399999999999999">
       <c r="A33" s="4">
         <v>100001</v>
       </c>
@@ -1992,15 +2027,16 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4">
-        <v>100</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="9">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
+        <v>100</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="9">
         <v>100001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:12" ht="17.399999999999999">
       <c r="A34" s="4">
         <v>100002</v>
       </c>
@@ -2019,15 +2055,16 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4">
-        <v>100</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="9">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <v>100</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="9">
         <v>100002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:12" ht="17.399999999999999">
       <c r="A35" s="4">
         <v>100011</v>
       </c>
@@ -2046,15 +2083,16 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4">
-        <v>100</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="9">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
+        <v>100</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="9">
         <v>100011</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:12" ht="17.399999999999999">
       <c r="A36" s="4">
         <v>100012</v>
       </c>
@@ -2073,15 +2111,16 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4">
-        <v>100</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="9">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
+        <v>100</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="9">
         <v>100012</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:12" ht="17.399999999999999">
       <c r="A37" s="4">
         <v>100013</v>
       </c>
@@ -2100,15 +2139,16 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>100</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="9">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
+        <v>100</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="9">
         <v>100013</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:12" ht="17.399999999999999">
       <c r="A38" s="7">
         <v>100014</v>
       </c>
@@ -2127,15 +2167,16 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7">
-        <v>100</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="10">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7">
+        <v>100</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="10">
         <v>100026</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17">
+    <row r="39" spans="1:12" ht="17.399999999999999">
       <c r="A39" s="4">
         <v>8100100</v>
       </c>
@@ -2154,19 +2195,20 @@
       <c r="F39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
-        <v>100</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="9" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
+        <v>100</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17">
+    <row r="40" spans="1:12" ht="17.399999999999999">
       <c r="A40" s="4">
         <v>8100200</v>
       </c>
@@ -2185,21 +2227,22 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
         <v>2</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>0.5</v>
       </c>
-      <c r="I40" s="4">
-        <v>100</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="9" t="s">
+      <c r="J40" s="4">
+        <v>100</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17">
+    <row r="41" spans="1:12" ht="17.399999999999999">
       <c r="A41" s="4">
         <v>8100300</v>
       </c>
@@ -2218,19 +2261,20 @@
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
-        <v>100</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="9">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
+        <v>100</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="9">
         <v>81003000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17">
+    <row r="42" spans="1:12" ht="17.399999999999999">
       <c r="A42" s="4">
         <v>8100400</v>
       </c>
@@ -2249,19 +2293,20 @@
       <c r="F42" s="4">
         <v>1</v>
       </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
-        <v>100</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="9" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
+        <v>100</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="34">
+    <row r="43" spans="1:12" ht="34.799999999999997">
       <c r="A43" s="4">
         <v>8100500</v>
       </c>
@@ -2280,19 +2325,20 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4">
-        <v>100</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="9" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
+        <v>100</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17">
+    <row r="44" spans="1:12" ht="17.399999999999999">
       <c r="A44" s="4">
         <v>8100600</v>
       </c>
@@ -2311,19 +2357,20 @@
       <c r="F44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4">
-        <v>100</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="9" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
+        <v>100</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17">
+    <row r="45" spans="1:12" ht="17.399999999999999">
       <c r="A45" s="4">
         <v>8100700</v>
       </c>
@@ -2342,19 +2389,20 @@
       <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4">
-        <v>100</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="9">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
+        <v>100</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="9">
         <v>81007000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="17">
+    <row r="46" spans="1:12" ht="17.399999999999999">
       <c r="A46" s="4">
         <v>8100800</v>
       </c>
@@ -2373,19 +2421,20 @@
       <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4">
-        <v>100</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="9">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
+        <v>100</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="9">
         <v>81008000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17">
+    <row r="47" spans="1:12" ht="17.399999999999999">
       <c r="A47" s="4">
         <v>8100900</v>
       </c>
@@ -2404,15 +2453,16 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4">
-        <v>100</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="9">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
+        <v>100</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="9">
         <v>81009000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17">
+    <row r="48" spans="1:12" ht="17.399999999999999">
       <c r="A48" s="4">
         <v>8101000</v>
       </c>
@@ -2431,15 +2481,16 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4">
-        <v>100</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="9">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
+        <v>100</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="9">
         <v>81010000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17">
+    <row r="49" spans="1:12" ht="17.399999999999999">
       <c r="A49" s="4">
         <v>8101100</v>
       </c>
@@ -2458,19 +2509,20 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4">
-        <v>100</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="9" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
+        <v>100</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17">
+    <row r="50" spans="1:12" ht="17.399999999999999">
       <c r="A50" s="4">
         <v>8101200</v>
       </c>
@@ -2489,19 +2541,20 @@
       <c r="F50" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4">
-        <v>100</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="9" t="s">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4">
+        <v>100</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="17">
+    <row r="51" spans="1:12" ht="17.399999999999999">
       <c r="A51" s="4">
         <v>8101300</v>
       </c>
@@ -2520,15 +2573,16 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4">
-        <v>100</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="9" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
+        <v>100</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="34">
+    <row r="52" spans="1:12" ht="34.799999999999997">
       <c r="A52" s="4">
         <v>8101400</v>
       </c>
@@ -2547,19 +2601,20 @@
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4">
-        <v>100</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="9" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
+        <v>100</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="34">
+    <row r="53" spans="1:12" ht="17.399999999999999">
       <c r="A53" s="4">
         <v>8101500</v>
       </c>
@@ -2578,24 +2633,27 @@
       <c r="F53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4">
-        <v>100</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="17">
+      <c r="G53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
+        <v>100</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="9">
+        <v>81015000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.399999999999999">
       <c r="A54" s="4">
         <v>8101600</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
@@ -2609,24 +2667,25 @@
       <c r="F54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="4">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4">
-        <v>100</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="17">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
+        <v>100</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="17.399999999999999">
       <c r="A55" s="4">
         <v>8101700</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -2640,24 +2699,25 @@
       <c r="F55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <v>2</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4">
-        <v>100</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="17">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
+        <v>100</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="17.399999999999999">
       <c r="A56" s="4">
         <v>8101800</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
@@ -2671,24 +2731,25 @@
       <c r="F56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4">
-        <v>100</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="34">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
+        <v>100</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="34.799999999999997">
       <c r="A57" s="4">
         <v>8101900</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>16</v>
@@ -2702,24 +2763,25 @@
       <c r="F57" s="4">
         <v>1</v>
       </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4">
-        <v>100</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="17">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
+        <v>100</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17.399999999999999">
       <c r="A58" s="4">
         <v>8102000</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>41</v>
@@ -2733,20 +2795,21 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4">
-        <v>100</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="17">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
+        <v>100</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="17.399999999999999">
       <c r="A59" s="4">
         <v>8102100</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>41</v>
@@ -2760,20 +2823,21 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="4">
-        <v>100</v>
-      </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="9">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
+        <v>100</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="9">
         <v>81021000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="17">
+    <row r="60" spans="1:12" ht="17.399999999999999">
       <c r="A60" s="4">
         <v>8102200</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>41</v>
@@ -2787,20 +2851,21 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4">
-        <v>100</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="9">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
+        <v>100</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="9">
         <v>81022000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17">
+    <row r="61" spans="1:12" ht="17.399999999999999">
       <c r="A61" s="4">
         <v>8102300</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -2814,24 +2879,25 @@
       <c r="F61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4">
-        <v>100</v>
-      </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="17">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
+        <v>100</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17.399999999999999">
       <c r="A62" s="4">
         <v>8102400</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>9</v>
@@ -2845,20 +2911,21 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4">
-        <v>100</v>
-      </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="34">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
+        <v>100</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="34.799999999999997">
       <c r="A63" s="4">
         <v>8102500</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>41</v>
@@ -2872,20 +2939,21 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4">
-        <v>100</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="17">
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
+        <v>100</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.399999999999999">
       <c r="A64" s="4">
         <v>8102600</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>16</v>
@@ -2899,24 +2967,25 @@
       <c r="F64" s="4">
         <v>1</v>
       </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4">
-        <v>100</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="17">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
+        <v>100</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17.399999999999999">
       <c r="A65" s="13">
         <v>8102700</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>41</v>
@@ -2930,20 +2999,21 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="13">
-        <v>100</v>
-      </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="14">
+      <c r="I65" s="13"/>
+      <c r="J65" s="13">
+        <v>100</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="L65" s="14">
         <v>81027000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="17">
+    <row r="66" spans="1:12" ht="17.399999999999999">
       <c r="A66" s="13">
         <v>8102800</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>41</v>
@@ -2957,20 +3027,21 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="13">
-        <v>100</v>
-      </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="14">
+      <c r="I66" s="13"/>
+      <c r="J66" s="13">
+        <v>100</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="14">
         <v>81028000</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="17">
+    <row r="67" spans="1:12" ht="17.399999999999999">
       <c r="A67" s="4">
         <v>8102900</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>41</v>
@@ -2984,20 +3055,21 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4">
-        <v>100</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="17">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
+        <v>100</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17.399999999999999">
       <c r="A68" s="4">
         <v>8103000</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>16</v>
@@ -3009,24 +3081,25 @@
         <v>35</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4">
-        <v>100</v>
-      </c>
-      <c r="J68" s="4"/>
-      <c r="K68" s="9">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
+        <v>100</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="9">
         <v>81030000</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="17">
+    <row r="69" spans="1:12" ht="17.399999999999999">
       <c r="A69" s="4">
         <v>8103100</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -3040,15 +3113,16 @@
       <c r="F69" s="4">
         <v>1</v>
       </c>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4">
-        <v>100</v>
-      </c>
-      <c r="J69" s="4"/>
-      <c r="K69" s="9">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
+        <v>100</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="9">
         <v>81031000</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC45E85-2D6A-4551-A932-1931A12ED49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66A107-037D-4A29-BB09-F9A347801310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="129">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -475,6 +475,10 @@
   <si>
     <t>isSameTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,31 +986,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53:L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" style="1"/>
-    <col min="9" max="9" width="10.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" style="1"/>
-    <col min="11" max="11" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="8.75" style="1"/>
+    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>70001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999">
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>70002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999">
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>70003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>70004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999">
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>70005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>70006</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999">
+    <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>70007</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999">
+    <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>70008</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999">
+    <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>70009</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999">
+    <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>70010</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.399999999999999">
+    <row r="12" spans="1:12" ht="16.5">
       <c r="A12" s="4">
         <v>1011</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>70011</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999">
+    <row r="13" spans="1:12" ht="16.5">
       <c r="A13" s="4">
         <v>1012</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>70012</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999">
+    <row r="14" spans="1:12" ht="16.5">
       <c r="A14" s="4">
         <v>1013</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>70013</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999">
+    <row r="15" spans="1:12" ht="16.5">
       <c r="A15" s="4">
         <v>1014</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>70014</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999">
+    <row r="16" spans="1:12" ht="16.5">
       <c r="A16" s="4">
         <v>2001</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>70015</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.399999999999999">
+    <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="4">
         <v>2002</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>70016</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.399999999999999">
+    <row r="18" spans="1:12" ht="16.5">
       <c r="A18" s="4">
         <v>2003</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>70017</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.399999999999999">
+    <row r="19" spans="1:12" ht="16.5">
       <c r="A19" s="4">
         <v>2004</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>70018</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.399999999999999">
+    <row r="20" spans="1:12" ht="16.5">
       <c r="A20" s="4">
         <v>3001</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>70019</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.399999999999999">
+    <row r="21" spans="1:12" ht="16.5">
       <c r="A21" s="4">
         <v>3002</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>70020</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999">
+    <row r="22" spans="1:12" ht="16.5">
       <c r="A22" s="4">
         <v>3003</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>70021</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.399999999999999">
+    <row r="23" spans="1:12" ht="16.5">
       <c r="A23" s="4">
         <v>4001</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>70022</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.399999999999999">
+    <row r="24" spans="1:12" ht="16.5">
       <c r="A24" s="4">
         <v>4002</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>70023</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.399999999999999">
+    <row r="25" spans="1:12" ht="16.5">
       <c r="A25" s="4">
         <v>4003</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>70024</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.399999999999999">
+    <row r="26" spans="1:12" ht="16.5">
       <c r="A26" s="4">
         <v>4004</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>70025</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.399999999999999">
+    <row r="27" spans="1:12" ht="16.5">
       <c r="A27" s="4">
         <v>90001</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>90001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.399999999999999">
+    <row r="28" spans="1:12" ht="16.5">
       <c r="A28" s="4">
         <v>90002</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>90002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.399999999999999">
+    <row r="29" spans="1:12" ht="16.5">
       <c r="A29" s="4">
         <v>90003</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>90003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.399999999999999">
+    <row r="30" spans="1:12" ht="16.5">
       <c r="A30" s="4">
         <v>90004</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>90004</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.399999999999999">
+    <row r="31" spans="1:12" ht="16.5">
       <c r="A31" s="4">
         <v>90005</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>90005</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.399999999999999">
+    <row r="32" spans="1:12" ht="16.5">
       <c r="A32" s="4">
         <v>90006</v>
       </c>
@@ -2008,7 +2012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.399999999999999">
+    <row r="33" spans="1:12" ht="16.5">
       <c r="A33" s="4">
         <v>100001</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.399999999999999">
+    <row r="34" spans="1:12" ht="16.5">
       <c r="A34" s="4">
         <v>100002</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>100002</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.399999999999999">
+    <row r="35" spans="1:12" ht="16.5">
       <c r="A35" s="4">
         <v>100011</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>100011</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.399999999999999">
+    <row r="36" spans="1:12" ht="16.5">
       <c r="A36" s="4">
         <v>100012</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>100012</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.399999999999999">
+    <row r="37" spans="1:12" ht="16.5">
       <c r="A37" s="4">
         <v>100013</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>100013</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.399999999999999">
+    <row r="38" spans="1:12" ht="16.5">
       <c r="A38" s="7">
         <v>100014</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>100026</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.399999999999999">
+    <row r="39" spans="1:12" ht="16.5">
       <c r="A39" s="4">
         <v>8100100</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.399999999999999">
+    <row r="40" spans="1:12" ht="16.5">
       <c r="A40" s="4">
         <v>8100200</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.399999999999999">
+    <row r="41" spans="1:12" ht="16.5">
       <c r="A41" s="4">
         <v>8100300</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>81003000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.399999999999999">
+    <row r="42" spans="1:12" ht="16.5">
       <c r="A42" s="4">
         <v>8100400</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="34.799999999999997">
+    <row r="43" spans="1:12" ht="33">
       <c r="A43" s="4">
         <v>8100500</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.399999999999999">
+    <row r="44" spans="1:12" ht="16.5">
       <c r="A44" s="4">
         <v>8100600</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.399999999999999">
+    <row r="45" spans="1:12" ht="16.5">
       <c r="A45" s="4">
         <v>8100700</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>81007000</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.399999999999999">
+    <row r="46" spans="1:12" ht="16.5">
       <c r="A46" s="4">
         <v>8100800</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>81008000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.399999999999999">
+    <row r="47" spans="1:12" ht="16.5">
       <c r="A47" s="4">
         <v>8100900</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>81009000</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.399999999999999">
+    <row r="48" spans="1:12" ht="16.5">
       <c r="A48" s="4">
         <v>8101000</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>81010000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.399999999999999">
+    <row r="49" spans="1:12" ht="16.5">
       <c r="A49" s="4">
         <v>8101100</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.399999999999999">
+    <row r="50" spans="1:12" ht="16.5">
       <c r="A50" s="4">
         <v>8101200</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17.399999999999999">
+    <row r="51" spans="1:12" ht="16.5">
       <c r="A51" s="4">
         <v>8101300</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="34.799999999999997">
+    <row r="52" spans="1:12" ht="33">
       <c r="A52" s="4">
         <v>8101400</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.399999999999999">
+    <row r="53" spans="1:12" ht="16.5">
       <c r="A53" s="4">
         <v>8101500</v>
       </c>
@@ -2648,76 +2652,68 @@
         <v>81015000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.399999999999999">
+    <row r="54" spans="1:12" ht="16.5">
       <c r="A54" s="4">
-        <v>8101600</v>
+        <v>8101501</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4">
-        <v>1</v>
-      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4">
         <v>100</v>
       </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="17.399999999999999">
+      <c r="K54" s="5"/>
+      <c r="L54" s="9">
+        <v>81015001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5">
       <c r="A55" s="4">
-        <v>8101700</v>
+        <v>8101502</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4">
-        <v>2</v>
-      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4">
         <v>100</v>
       </c>
       <c r="K55" s="4"/>
-      <c r="L55" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="17.399999999999999">
+      <c r="L55" s="9">
+        <v>81015002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5">
       <c r="A56" s="4">
-        <v>8101800</v>
+        <v>8101600</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
@@ -2729,7 +2725,7 @@
         <v>75</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4">
@@ -2741,31 +2737,31 @@
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="34.799999999999997">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5">
       <c r="A57" s="4">
-        <v>8101900</v>
+        <v>8101700</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4">
@@ -2773,77 +2769,85 @@
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="17.399999999999999">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.5">
       <c r="A58" s="4">
-        <v>8102000</v>
+        <v>8101800</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4">
         <v>100</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="17.399999999999999">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="33">
       <c r="A59" s="4">
-        <v>8102100</v>
+        <v>8101900</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4">
         <v>100</v>
       </c>
       <c r="K59" s="4"/>
-      <c r="L59" s="9">
-        <v>81021000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="17.399999999999999">
+      <c r="L59" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5">
       <c r="A60" s="4">
-        <v>8102200</v>
+        <v>8102000</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>11</v>
@@ -2856,57 +2860,53 @@
         <v>100</v>
       </c>
       <c r="K60" s="4"/>
-      <c r="L60" s="9">
-        <v>81022000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="17.399999999999999">
+      <c r="L60" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.5">
       <c r="A61" s="4">
-        <v>8102300</v>
+        <v>8102100</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
+      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4">
         <v>100</v>
       </c>
       <c r="K61" s="4"/>
-      <c r="L61" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="17.399999999999999">
+      <c r="L61" s="9">
+        <v>81021000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5">
       <c r="A62" s="4">
-        <v>8102400</v>
+        <v>8102200</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2916,213 +2916,273 @@
         <v>100</v>
       </c>
       <c r="K62" s="4"/>
-      <c r="L62" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="34.799999999999997">
+      <c r="L62" s="9">
+        <v>81022000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.5">
       <c r="A63" s="4">
-        <v>8102500</v>
+        <v>8102300</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4">
         <v>100</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="17.399999999999999">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.5">
       <c r="A64" s="4">
-        <v>8102600</v>
+        <v>8102400</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4">
-        <v>1</v>
-      </c>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4">
         <v>100</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="33">
+      <c r="A65" s="4">
+        <v>8102500</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
+        <v>100</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="16.5">
+      <c r="A66" s="4">
+        <v>8102600</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
+        <v>100</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.399999999999999">
-      <c r="A65" s="13">
+    <row r="67" spans="1:12" ht="16.5">
+      <c r="A67" s="13">
         <v>8102700</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13">
-        <v>100</v>
-      </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="14">
+      <c r="E67" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13">
+        <v>100</v>
+      </c>
+      <c r="K67" s="13"/>
+      <c r="L67" s="14">
         <v>81027000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.399999999999999">
-      <c r="A66" s="13">
+    <row r="68" spans="1:12" ht="16.5">
+      <c r="A68" s="13">
         <v>8102800</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B68" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13">
-        <v>100</v>
-      </c>
-      <c r="K66" s="13"/>
-      <c r="L66" s="14">
+      <c r="E68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13">
+        <v>100</v>
+      </c>
+      <c r="K68" s="13"/>
+      <c r="L68" s="14">
         <v>81028000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.399999999999999">
-      <c r="A67" s="4">
+    <row r="69" spans="1:12" ht="16.5">
+      <c r="A69" s="4">
         <v>8102900</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4">
-        <v>100</v>
-      </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="17.399999999999999">
-      <c r="A68" s="4">
-        <v>8103000</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4">
-        <v>100</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="9">
-        <v>81030000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="17.399999999999999">
-      <c r="A69" s="4">
-        <v>8103100</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4">
-        <v>1</v>
-      </c>
+      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4">
         <v>100</v>
       </c>
       <c r="K69" s="4"/>
-      <c r="L69" s="9">
+      <c r="L69" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16.5">
+      <c r="A70" s="4">
+        <v>8103000</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
+        <v>100</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="9">
+        <v>81030000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.5">
+      <c r="A71" s="4">
+        <v>8103100</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
+        <v>100</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="9">
         <v>81031000</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C99D6C-9807-428E-915F-B42DBA70AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267BEAE4-E0B0-4583-937F-B7173852DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="135">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>81019000, 81019001, 81019002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>81020000, 81020001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,18 +402,6 @@
   </si>
   <si>
     <t>비프 웰링턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81024000, 81024001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸와그라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81025000, 81025001, 81025002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -495,6 +479,30 @@
   <si>
     <t>혈토 발사_카드 소환</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기_버프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>81019001, 81019002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴_카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81025000, 81025001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_만복도, 카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -997,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1041,7 +1049,7 @@
         <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -2514,7 +2522,7 @@
         <v>8101001</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>44</v>
@@ -2574,7 +2582,7 @@
         <v>8101101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>44</v>
@@ -2636,7 +2644,7 @@
         <v>8101201</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>44</v>
@@ -2692,7 +2700,7 @@
         <v>8101301</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>44</v>
@@ -2720,7 +2728,7 @@
         <v>8101400</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>16</v>
@@ -2752,7 +2760,7 @@
         <v>8101401</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>41</v>
@@ -2780,7 +2788,7 @@
         <v>8101402</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>44</v>
@@ -2808,7 +2816,7 @@
         <v>8101500</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
@@ -2842,7 +2850,7 @@
         <v>8101501</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>41</v>
@@ -2870,7 +2878,7 @@
         <v>8101502</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>44</v>
@@ -2978,7 +2986,9 @@
       <c r="F64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G64" s="3"/>
+      <c r="G64" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="33">
+    <row r="65" spans="1:12" ht="16.5">
       <c r="A65" s="3">
         <v>8101900</v>
       </c>
@@ -3019,22 +3029,22 @@
         <v>100</v>
       </c>
       <c r="K65" s="3"/>
-      <c r="L65" s="6" t="s">
-        <v>104</v>
+      <c r="L65" s="6">
+        <v>81019000</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="16.5">
       <c r="A66" s="3">
-        <v>8102000</v>
+        <v>8101901</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>11</v>
@@ -3048,21 +3058,21 @@
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="6" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16.5">
       <c r="A67" s="3">
-        <v>8102100</v>
+        <v>8102000</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>11</v>
@@ -3075,16 +3085,16 @@
         <v>100</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="6">
-        <v>81021000</v>
+      <c r="L67" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16.5">
       <c r="A68" s="3">
-        <v>8102200</v>
+        <v>8102100</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>41</v>
@@ -3104,47 +3114,43 @@
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="6">
-        <v>81022000</v>
+        <v>81021000</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="16.5">
       <c r="A69" s="3">
-        <v>8102300</v>
+        <v>8102200</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
         <v>100</v>
       </c>
       <c r="K69" s="3"/>
-      <c r="L69" s="6" t="s">
-        <v>109</v>
+      <c r="L69" s="6">
+        <v>81022000</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="16.5">
       <c r="A70" s="3">
-        <v>8102400</v>
+        <v>8102300</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
@@ -3155,30 +3161,36 @@
       <c r="E70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
         <v>100</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="33">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.5">
       <c r="A71" s="3">
-        <v>8102500</v>
+        <v>8102400</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>11</v>
@@ -3191,185 +3203,267 @@
         <v>100</v>
       </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="6" t="s">
-        <v>113</v>
+      <c r="L71" s="6">
+        <v>81024000</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="16.5">
       <c r="A72" s="3">
-        <v>8102600</v>
+        <v>8102401</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="3">
-        <v>1</v>
-      </c>
+      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3">
         <v>100</v>
       </c>
       <c r="K72" s="3"/>
-      <c r="L72" s="6" t="s">
-        <v>115</v>
+      <c r="L72" s="6">
+        <v>81024001</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="16.5">
-      <c r="A73" s="9">
-        <v>8102700</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="9" t="s">
+      <c r="A73" s="3">
+        <v>8102500</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9">
-        <v>100</v>
-      </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10">
-        <v>81027000</v>
+      <c r="E73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>100</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="16.5">
-      <c r="A74" s="9">
-        <v>8102800</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="A74" s="3">
+        <v>8102501</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9">
-        <v>100</v>
-      </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="10">
-        <v>81028000</v>
+      <c r="D74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
+        <v>100</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="6">
+        <v>81025002</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="16.5">
       <c r="A75" s="3">
-        <v>8102900</v>
+        <v>8102600</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
       <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
         <v>100</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16.5">
-      <c r="A76" s="3">
+      <c r="A76" s="9">
+        <v>8102700</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9">
+        <v>100</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10">
+        <v>81027000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.5">
+      <c r="A77" s="9">
+        <v>8102800</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9">
+        <v>100</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10">
+        <v>81028000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16.5">
+      <c r="A78" s="3">
+        <v>8102900</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <v>100</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="16.5">
+      <c r="A79" s="3">
         <v>8103000</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="B79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3">
-        <v>1</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="6">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <v>100</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="6">
         <v>81030000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16.5">
-      <c r="A77" s="3">
+    <row r="80" spans="1:12" ht="16.5">
+      <c r="A80" s="3">
         <v>8103100</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3">
-        <v>1</v>
-      </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3">
-        <v>100</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="6">
+      <c r="E80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>100</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="6">
         <v>81031000</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267BEAE4-E0B0-4583-937F-B7173852DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDDF08-4DDE-4720-852E-CD93E6F19C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3">

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDDF08-4DDE-4720-852E-CD93E6F19C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B0076-7F94-4D5A-A11D-A3603A36B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -502,6 +502,22 @@
   </si>
   <si>
     <t>푸와그라_만복도, 카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 지휘관 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 자폭병 자폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 자폭병 자폭 범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,11 +1021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3467,6 +3483,102 @@
         <v>81031000</v>
       </c>
     </row>
+    <row r="81" spans="1:12" ht="16.5">
+      <c r="A81" s="3">
+        <v>8103200</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="6">
+        <v>81032000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16.5">
+      <c r="A82" s="3">
+        <v>8103300</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>100</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="6">
+        <v>81033000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="16.5">
+      <c r="A83" s="3">
+        <v>8103301</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="6">
+        <v>81033001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B0076-7F94-4D5A-A11D-A3603A36B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C836BF27-FA26-403B-B5B6-6178BE3DF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2085" windowWidth="32040" windowHeight="20730" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="142">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -518,6 +518,18 @@
   </si>
   <si>
     <t>1, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainAiDataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageDealt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,11 +1033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1041,11 +1053,11 @@
     <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1"/>
     <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="12" max="14" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:14" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1082,8 +1094,14 @@
       <c r="L1" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A2" s="11">
         <v>1001</v>
       </c>
@@ -1114,8 +1132,10 @@
       <c r="L2" s="12">
         <v>70001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A3" s="11">
         <v>1002</v>
       </c>
@@ -1148,8 +1168,10 @@
       <c r="L3" s="12">
         <v>70002</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A4" s="11">
         <v>1003</v>
       </c>
@@ -1180,8 +1202,10 @@
       <c r="L4" s="12">
         <v>70003</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A5" s="11">
         <v>1004</v>
       </c>
@@ -1212,8 +1236,10 @@
       <c r="L5" s="12">
         <v>70004</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A6" s="11">
         <v>1005</v>
       </c>
@@ -1246,8 +1272,10 @@
       <c r="L6" s="12">
         <v>70005</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A7" s="11">
         <v>1006</v>
       </c>
@@ -1278,8 +1306,10 @@
       <c r="L7" s="12">
         <v>70006</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A8" s="11">
         <v>1007</v>
       </c>
@@ -1312,8 +1342,10 @@
       <c r="L8" s="12">
         <v>70007</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A9" s="11">
         <v>1008</v>
       </c>
@@ -1342,8 +1374,10 @@
       <c r="L9" s="12">
         <v>70008</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A10" s="11">
         <v>1009</v>
       </c>
@@ -1374,8 +1408,10 @@
       <c r="L10" s="12">
         <v>70009</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A11" s="11">
         <v>1010</v>
       </c>
@@ -1406,8 +1442,10 @@
       <c r="L11" s="12">
         <v>70010</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A12" s="11">
         <v>1011</v>
       </c>
@@ -1438,8 +1476,10 @@
       <c r="L12" s="12">
         <v>70011</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A13" s="11">
         <v>1012</v>
       </c>
@@ -1468,8 +1508,10 @@
       <c r="L13" s="12">
         <v>70012</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A14" s="11">
         <v>1013</v>
       </c>
@@ -1498,8 +1540,10 @@
       <c r="L14" s="12">
         <v>70013</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A15" s="11">
         <v>1014</v>
       </c>
@@ -1528,8 +1572,10 @@
       <c r="L15" s="12">
         <v>70014</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A16" s="11">
         <v>2001</v>
       </c>
@@ -1560,8 +1606,10 @@
       <c r="L16" s="12">
         <v>70015</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A17" s="11">
         <v>2002</v>
       </c>
@@ -1592,8 +1640,10 @@
       <c r="L17" s="12">
         <v>70016</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A18" s="11">
         <v>2003</v>
       </c>
@@ -1620,8 +1670,10 @@
       <c r="L18" s="12">
         <v>70017</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A19" s="11">
         <v>2004</v>
       </c>
@@ -1648,8 +1700,10 @@
       <c r="L19" s="12">
         <v>70018</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A20" s="11">
         <v>3001</v>
       </c>
@@ -1680,8 +1734,10 @@
       <c r="L20" s="12">
         <v>70019</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A21" s="11">
         <v>3002</v>
       </c>
@@ -1712,8 +1768,10 @@
       <c r="L21" s="12">
         <v>70020</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A22" s="11">
         <v>3003</v>
       </c>
@@ -1744,8 +1802,10 @@
       <c r="L22" s="12">
         <v>70021</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A23" s="11">
         <v>4001</v>
       </c>
@@ -1776,8 +1836,10 @@
       <c r="L23" s="12">
         <v>70022</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A24" s="11">
         <v>4002</v>
       </c>
@@ -1808,8 +1870,10 @@
       <c r="L24" s="12">
         <v>70023</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A25" s="11">
         <v>4003</v>
       </c>
@@ -1840,8 +1904,10 @@
       <c r="L25" s="12">
         <v>70024</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A26" s="11">
         <v>4004</v>
       </c>
@@ -1870,8 +1936,10 @@
       <c r="L26" s="12">
         <v>70025</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A27" s="11">
         <v>90001</v>
       </c>
@@ -1902,8 +1970,10 @@
       <c r="L27" s="12">
         <v>90001</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A28" s="11">
         <v>90002</v>
       </c>
@@ -1934,8 +2004,14 @@
       <c r="L28" s="12">
         <v>90002</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" s="12">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A29" s="11">
         <v>90003</v>
       </c>
@@ -1962,8 +2038,10 @@
       <c r="L29" s="12">
         <v>90003</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A30" s="11">
         <v>90004</v>
       </c>
@@ -1990,8 +2068,10 @@
       <c r="L30" s="12">
         <v>90004</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A31" s="11">
         <v>90005</v>
       </c>
@@ -2018,8 +2098,10 @@
       <c r="L31" s="12">
         <v>90005</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A32" s="11">
         <v>90006</v>
       </c>
@@ -2046,8 +2128,10 @@
       <c r="L32" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A33" s="11">
         <v>100001</v>
       </c>
@@ -2074,8 +2158,10 @@
       <c r="L33" s="12">
         <v>100001</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A34" s="11">
         <v>100002</v>
       </c>
@@ -2102,8 +2188,10 @@
       <c r="L34" s="12">
         <v>100002</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A35" s="11">
         <v>100011</v>
       </c>
@@ -2130,8 +2218,10 @@
       <c r="L35" s="12">
         <v>100011</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A36" s="11">
         <v>100012</v>
       </c>
@@ -2158,8 +2248,10 @@
       <c r="L36" s="12">
         <v>100012</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A37" s="11">
         <v>100013</v>
       </c>
@@ -2186,8 +2278,10 @@
       <c r="L37" s="12">
         <v>100013</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="13" customFormat="1" ht="16.5">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="16.5">
       <c r="A38" s="11">
         <v>100014</v>
       </c>
@@ -2214,8 +2308,10 @@
       <c r="L38" s="12">
         <v>100026</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="16.5">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="16.5">
       <c r="A39" s="3">
         <v>8100100</v>
       </c>
@@ -2248,8 +2344,10 @@
       <c r="L39" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="16.5">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="16.5">
       <c r="A40" s="3">
         <v>8100200</v>
       </c>
@@ -2282,8 +2380,10 @@
       <c r="L40" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="16.5">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="16.5">
       <c r="A41" s="3">
         <v>8100300</v>
       </c>
@@ -2314,8 +2414,10 @@
       <c r="L41" s="6">
         <v>81003000</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="16.5">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" ht="16.5">
       <c r="A42" s="3">
         <v>8100400</v>
       </c>
@@ -2346,8 +2448,10 @@
       <c r="L42" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="33">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="33">
       <c r="A43" s="3">
         <v>8100500</v>
       </c>
@@ -2378,8 +2482,10 @@
       <c r="L43" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="16.5">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" ht="16.5">
       <c r="A44" s="3">
         <v>8100600</v>
       </c>
@@ -2412,8 +2518,10 @@
       <c r="L44" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="16.5">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" ht="16.5">
       <c r="A45" s="3">
         <v>8100700</v>
       </c>
@@ -2444,8 +2552,10 @@
       <c r="L45" s="6">
         <v>81007000</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="16.5">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" ht="16.5">
       <c r="A46" s="3">
         <v>8100800</v>
       </c>
@@ -2476,8 +2586,10 @@
       <c r="L46" s="6">
         <v>81008000</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="16.5">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" ht="16.5">
       <c r="A47" s="3">
         <v>8100900</v>
       </c>
@@ -2504,8 +2616,10 @@
       <c r="L47" s="6">
         <v>81009000</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="16.5">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5">
       <c r="A48" s="3">
         <v>8101000</v>
       </c>
@@ -2532,8 +2646,10 @@
       <c r="L48" s="6">
         <v>81010000</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="16.5">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="16.5">
       <c r="A49" s="3">
         <v>8101001</v>
       </c>
@@ -2560,8 +2676,10 @@
       <c r="L49" s="6">
         <v>81010001</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="16.5">
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="16.5">
       <c r="A50" s="3">
         <v>8101100</v>
       </c>
@@ -2592,8 +2710,10 @@
       <c r="L50" s="6">
         <v>81011000</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="16.5">
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="16.5">
       <c r="A51" s="3">
         <v>8101101</v>
       </c>
@@ -2620,8 +2740,10 @@
       <c r="L51" s="6">
         <v>81011001</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="16.5">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="16.5">
       <c r="A52" s="3">
         <v>8101200</v>
       </c>
@@ -2654,8 +2776,10 @@
       <c r="L52" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="16.5">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="3">
         <v>8101201</v>
       </c>
@@ -2682,8 +2806,10 @@
       <c r="L53" s="6">
         <v>81012002</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="16.5">
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="16.5">
       <c r="A54" s="3">
         <v>8101300</v>
       </c>
@@ -2710,8 +2836,10 @@
       <c r="L54" s="6">
         <v>81013000</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="16.5">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" ht="16.5">
       <c r="A55" s="3">
         <v>8101301</v>
       </c>
@@ -2738,8 +2866,10 @@
       <c r="L55" s="6">
         <v>81013001</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="16.5">
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="16.5">
       <c r="A56" s="3">
         <v>8101400</v>
       </c>
@@ -2770,8 +2900,10 @@
       <c r="L56" s="6">
         <v>81014000</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="16.5">
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="3">
         <v>8101401</v>
       </c>
@@ -2798,8 +2930,10 @@
       <c r="L57" s="6">
         <v>81014001</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="16.5">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" ht="16.5">
       <c r="A58" s="3">
         <v>8101402</v>
       </c>
@@ -2826,8 +2960,10 @@
       <c r="L58" s="6">
         <v>81014002</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="16.5">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:14" ht="16.5">
       <c r="A59" s="3">
         <v>8101500</v>
       </c>
@@ -2860,8 +2996,10 @@
       <c r="L59" s="6">
         <v>81015000</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="16.5">
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" ht="16.5">
       <c r="A60" s="3">
         <v>8101501</v>
       </c>
@@ -2888,8 +3026,10 @@
       <c r="L60" s="6">
         <v>81015001</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="16.5">
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" ht="16.5">
       <c r="A61" s="3">
         <v>8101502</v>
       </c>
@@ -2916,8 +3056,10 @@
       <c r="L61" s="6">
         <v>81015002</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="16.5">
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" ht="16.5">
       <c r="A62" s="3">
         <v>8101600</v>
       </c>
@@ -2950,8 +3092,10 @@
       <c r="L62" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="16.5">
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" ht="16.5">
       <c r="A63" s="3">
         <v>8101700</v>
       </c>
@@ -2982,8 +3126,10 @@
       <c r="L63" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="16.5">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:14" ht="16.5">
       <c r="A64" s="3">
         <v>8101800</v>
       </c>
@@ -3016,8 +3162,10 @@
       <c r="L64" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="16.5">
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="1:14" ht="16.5">
       <c r="A65" s="3">
         <v>8101900</v>
       </c>
@@ -3048,8 +3196,10 @@
       <c r="L65" s="6">
         <v>81019000</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="16.5">
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="1:14" ht="16.5">
       <c r="A66" s="3">
         <v>8101901</v>
       </c>
@@ -3076,8 +3226,10 @@
       <c r="L66" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="16.5">
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="1:14" ht="16.5">
       <c r="A67" s="3">
         <v>8102000</v>
       </c>
@@ -3104,8 +3256,10 @@
       <c r="L67" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="16.5">
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="1:14" ht="16.5">
       <c r="A68" s="3">
         <v>8102100</v>
       </c>
@@ -3132,8 +3286,10 @@
       <c r="L68" s="6">
         <v>81021000</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="16.5">
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.5">
       <c r="A69" s="3">
         <v>8102200</v>
       </c>
@@ -3160,8 +3316,10 @@
       <c r="L69" s="6">
         <v>81022000</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="16.5">
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="1:14" ht="16.5">
       <c r="A70" s="3">
         <v>8102300</v>
       </c>
@@ -3194,8 +3352,10 @@
       <c r="L70" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="16.5">
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="1:14" ht="16.5">
       <c r="A71" s="3">
         <v>8102400</v>
       </c>
@@ -3222,8 +3382,10 @@
       <c r="L71" s="6">
         <v>81024000</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="16.5">
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="1:14" ht="16.5">
       <c r="A72" s="3">
         <v>8102401</v>
       </c>
@@ -3250,8 +3412,10 @@
       <c r="L72" s="6">
         <v>81024001</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="16.5">
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="1:14" ht="16.5">
       <c r="A73" s="3">
         <v>8102500</v>
       </c>
@@ -3278,8 +3442,10 @@
       <c r="L73" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="16.5">
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="1:14" ht="16.5">
       <c r="A74" s="3">
         <v>8102501</v>
       </c>
@@ -3306,8 +3472,10 @@
       <c r="L74" s="6">
         <v>81025002</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="16.5">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="1:14" ht="16.5">
       <c r="A75" s="3">
         <v>8102600</v>
       </c>
@@ -3338,8 +3506,10 @@
       <c r="L75" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="16.5">
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="1:14" ht="16.5">
       <c r="A76" s="9">
         <v>8102700</v>
       </c>
@@ -3366,8 +3536,10 @@
       <c r="L76" s="10">
         <v>81027000</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="16.5">
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" ht="16.5">
       <c r="A77" s="9">
         <v>8102800</v>
       </c>
@@ -3394,8 +3566,10 @@
       <c r="L77" s="10">
         <v>81028000</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="16.5">
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.5">
       <c r="A78" s="3">
         <v>8102900</v>
       </c>
@@ -3422,8 +3596,10 @@
       <c r="L78" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="16.5">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+    </row>
+    <row r="79" spans="1:14" ht="16.5">
       <c r="A79" s="3">
         <v>8103000</v>
       </c>
@@ -3450,8 +3626,10 @@
       <c r="L79" s="6">
         <v>81030000</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="16.5">
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="1:14" ht="16.5">
       <c r="A80" s="3">
         <v>8103100</v>
       </c>
@@ -3482,8 +3660,10 @@
       <c r="L80" s="6">
         <v>81031000</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="16.5">
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="1:14" ht="16.5">
       <c r="A81" s="3">
         <v>8103200</v>
       </c>
@@ -3514,8 +3694,10 @@
       <c r="L81" s="6">
         <v>81032000</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="16.5">
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.5">
       <c r="A82" s="3">
         <v>8103300</v>
       </c>
@@ -3546,8 +3728,10 @@
       <c r="L82" s="6">
         <v>81033000</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="16.5">
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.5">
       <c r="A83" s="3">
         <v>8103301</v>
       </c>
@@ -3578,6 +3762,8 @@
       <c r="L83" s="6">
         <v>81033001</v>
       </c>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C836BF27-FA26-403B-B5B6-6178BE3DF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D5D16-82AB-4E45-8B3C-AAF130BA25C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2085" windowWidth="32040" windowHeight="20730" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="144">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -530,6 +530,14 @@
   </si>
   <si>
     <t>DamageDealt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼내오기_카드 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼내오기_만복도 소모하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3765,6 +3773,66 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
+    <row r="84" spans="1:14" ht="16.5">
+      <c r="A84" s="3">
+        <v>8103400</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <v>100</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="6">
+        <v>81034000</v>
+      </c>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" spans="1:14" ht="16.5">
+      <c r="A85" s="3">
+        <v>8103401</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <v>100</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="6">
+        <v>81034001</v>
+      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D5D16-82AB-4E45-8B3C-AAF130BA25C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C2285-6189-4677-890F-3BC37EB6CFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="146">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -539,6 +539,14 @@
   <si>
     <t>꺼내오기_만복도 소모하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제_체력회복</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제_저주카드 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L88" sqref="L88"/>
+      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3833,6 +3841,66 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
+    <row r="86" spans="1:14" ht="16.5">
+      <c r="A86" s="3">
+        <v>8103500</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <v>100</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="6">
+        <v>81035000</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="1:14" ht="16.5">
+      <c r="A87" s="3">
+        <v>8103501</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>100</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="6">
+        <v>81035001</v>
+      </c>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853C2285-6189-4677-890F-3BC37EB6CFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBD5B87-D3DC-40AA-A676-0BB9755DAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="3525" windowWidth="29145" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="146">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -590,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +627,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -655,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,6 +704,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1052,8 +1065,8 @@
   <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3713,39 +3726,43 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" ht="16.5">
-      <c r="A82" s="3">
+    <row r="82" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A82" s="16">
         <v>8103300</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="16">
         <v>2</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3">
-        <v>100</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="6">
+      <c r="G82" s="16"/>
+      <c r="H82" s="16">
+        <v>1</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16">
+        <v>100</v>
+      </c>
+      <c r="K82" s="16"/>
+      <c r="L82" s="17">
         <v>81033000</v>
       </c>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
+      <c r="M82" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N82" s="17">
+        <v>8103301</v>
+      </c>
     </row>
     <row r="83" spans="1:14" ht="16.5">
       <c r="A83" s="3">

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBD5B87-D3DC-40AA-A676-0BB9755DAE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB365A1-7FB0-4876-A684-C511826326C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="3525" windowWidth="29145" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="148">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -546,6 +546,14 @@
   </si>
   <si>
     <t>소화제_저주카드 소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라_만복도 소모하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라_마나 증가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1062,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3918,6 +3926,66 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
+    <row r="88" spans="1:14" ht="16.5">
+      <c r="A88" s="3">
+        <v>8103700</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <v>100</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="6">
+        <v>81037000</v>
+      </c>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="1:14" ht="16.5">
+      <c r="A89" s="3">
+        <v>8103701</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3"/>
+      <c r="L89" s="6">
+        <v>81037001</v>
+      </c>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB365A1-7FB0-4876-A684-C511826326C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B1C1B-3CA5-4ED8-82D8-6431F2AB6224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="151">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -555,6 +555,18 @@
   <si>
     <t>만드라고라_마나 증가</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>켈배 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주시하는 자 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주시하는 자 범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,6 +731,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1070,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3986,6 +4005,112 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
+    <row r="90" spans="1:14" ht="16.5">
+      <c r="A90" s="3">
+        <v>8103800</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3">
+        <v>3</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <v>100</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="6">
+        <v>81038000</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="1:14" s="21" customFormat="1" ht="16.5">
+      <c r="A91" s="19">
+        <v>8103900</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="19">
+        <v>2</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19">
+        <v>1</v>
+      </c>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19">
+        <v>100</v>
+      </c>
+      <c r="K91" s="19"/>
+      <c r="L91" s="20">
+        <v>81039000</v>
+      </c>
+      <c r="M91" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N91" s="20">
+        <v>8103901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16.5">
+      <c r="A92" s="19">
+        <v>8103901</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
+        <v>100</v>
+      </c>
+      <c r="K92" s="3"/>
+      <c r="L92" s="6">
+        <v>81039001</v>
+      </c>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B1C1B-3CA5-4ED8-82D8-6431F2AB6224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF570B-A65A-4038-B011-43FACEB3E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="155">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -566,6 +566,22 @@
   </si>
   <si>
     <t>주시하는 자 범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남동생 방어 버프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠 근거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 언니 지정 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 언니 원거리 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,13 +747,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1089,11 +1098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4039,46 +4048,46 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" s="21" customFormat="1" ht="16.5">
-      <c r="A91" s="19">
+    <row r="91" spans="1:14" ht="16.5">
+      <c r="A91" s="3">
         <v>8103900</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="19">
+      <c r="E91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="3">
         <v>2</v>
       </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19">
-        <v>1</v>
-      </c>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19">
-        <v>100</v>
-      </c>
-      <c r="K91" s="19"/>
-      <c r="L91" s="20">
+      <c r="G91" s="3"/>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
+        <v>100</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="6">
         <v>81039000</v>
       </c>
-      <c r="M91" s="20" t="s">
+      <c r="M91" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N91" s="20">
+      <c r="N91" s="6">
         <v>8103901</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="16.5">
-      <c r="A92" s="19">
+      <c r="A92" s="3">
         <v>8103901</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4110,6 +4119,140 @@
       </c>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="1:14" ht="16.5">
+      <c r="A93" s="3">
+        <v>8104000</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>100</v>
+      </c>
+      <c r="K93" s="3"/>
+      <c r="L93" s="6">
+        <v>81040000</v>
+      </c>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="1:14" ht="16.5">
+      <c r="A94" s="3">
+        <v>8104100</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
+        <v>100</v>
+      </c>
+      <c r="K94" s="3"/>
+      <c r="L94" s="6">
+        <v>81041000</v>
+      </c>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="1:14" ht="16.5">
+      <c r="A95" s="3">
+        <v>8104200</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
+        <v>100</v>
+      </c>
+      <c r="K95" s="3"/>
+      <c r="L95" s="6">
+        <v>81042000</v>
+      </c>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="1:14" ht="16.5">
+      <c r="A96" s="3">
+        <v>8104300</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
+        <v>100</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="6">
+        <v>81043000</v>
+      </c>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF570B-A65A-4038-B011-43FACEB3E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA5347-AB6A-478A-955A-2696B5A17721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="156">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -582,6 +582,10 @@
   </si>
   <si>
     <t>작은 언니 원거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼키기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,11 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4254,6 +4258,36 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
+    <row r="97" spans="1:14" ht="16.5">
+      <c r="A97" s="3">
+        <v>8104400</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
+        <v>100</v>
+      </c>
+      <c r="K97" s="3"/>
+      <c r="L97" s="6">
+        <v>81044000</v>
+      </c>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA5347-AB6A-478A-955A-2696B5A17721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA94943-39DB-427B-8B54-A027E080C83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -586,6 +597,22 @@
   </si>
   <si>
     <t>삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마의 트름_방어력 약화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수_힐림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Friendly Creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수_방어막</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,11 +1129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1115,7 +1142,7 @@
     <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
     <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="1"/>
@@ -4288,6 +4315,108 @@
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
     </row>
+    <row r="98" spans="1:14" ht="16.5">
+      <c r="A98" s="3">
+        <v>8104500</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
+        <v>100</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="6">
+        <v>81045000</v>
+      </c>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="1:14" ht="16.5">
+      <c r="A99" s="3">
+        <v>8104600</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
+        <v>100</v>
+      </c>
+      <c r="K99" s="4"/>
+      <c r="L99" s="6">
+        <v>81046000</v>
+      </c>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="100" spans="1:14" ht="16.5">
+      <c r="A100" s="3">
+        <v>8104601</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="6">
+        <v>81046001</v>
+      </c>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA94943-39DB-427B-8B54-A027E080C83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23876467-7DB6-44A2-981A-CC53322DDDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="165">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -613,6 +613,23 @@
   </si>
   <si>
     <t>오염된 성수_방어막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유항고구마_만복도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드카드 선택 소환</t>
+  </si>
+  <si>
+    <t>뽑을카드 선택 소환</t>
+  </si>
+  <si>
+    <t>무덤카드 선택 소환</t>
+  </si>
+  <si>
+    <t>카드 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
+      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4417,6 +4434,156 @@
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
     </row>
+    <row r="101" spans="1:14" ht="16.5">
+      <c r="A101" s="3">
+        <v>8104700</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3"/>
+      <c r="L101" s="6">
+        <v>81047000</v>
+      </c>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+    </row>
+    <row r="102" spans="1:14" ht="16.5">
+      <c r="A102" s="3">
+        <v>9999100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3">
+        <v>99991000</v>
+      </c>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+    </row>
+    <row r="103" spans="1:14" ht="16.5">
+      <c r="A103" s="3">
+        <v>9999200</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
+        <v>100</v>
+      </c>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3">
+        <v>99992000</v>
+      </c>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="1:14" ht="16.5">
+      <c r="A104" s="3">
+        <v>9999300</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <v>100</v>
+      </c>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3">
+        <v>99993000</v>
+      </c>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="1:14" ht="16.5">
+      <c r="A105" s="3">
+        <v>9999400</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
+        <v>100</v>
+      </c>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3">
+        <v>99994000</v>
+      </c>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23876467-7DB6-44A2-981A-CC53322DDDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A1792-204F-4A5F-A40F-0218C75D0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -630,6 +630,18 @@
   </si>
   <si>
     <t>카드 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방_첫열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방_후열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,11 +1158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2424,152 +2436,132 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" ht="16.5">
-      <c r="A39" s="3">
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="A39" s="11">
+        <v>9999100</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11">
+        <v>100</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11">
+        <v>99991000</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="A40" s="11">
+        <v>9999200</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11">
+        <v>100</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11">
+        <v>99992000</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="A41" s="11">
+        <v>9999300</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11">
+        <v>100</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11">
+        <v>99993000</v>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="A42" s="11">
+        <v>9999400</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11">
+        <v>100</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11">
+        <v>99994000</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="16.5">
+      <c r="A43" s="3">
         <v>8100100</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3">
-        <v>100</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5">
-      <c r="A40" s="3">
-        <v>8100200</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="3">
-        <v>100</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5">
-      <c r="A41" s="3">
-        <v>8100300</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="6">
-        <v>81003000</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" ht="16.5">
-      <c r="A42" s="3">
-        <v>8100400</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3">
-        <v>100</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" ht="33">
-      <c r="A43" s="3">
-        <v>8100500</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
@@ -2578,12 +2570,14 @@
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
@@ -2593,17 +2587,17 @@
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="16.5">
       <c r="A44" s="3">
-        <v>8100600</v>
+        <v>8100200</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
@@ -2612,40 +2606,40 @@
         <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.5</v>
+      </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="16.5">
       <c r="A45" s="3">
-        <v>8100700</v>
+        <v>8100300</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>11</v>
@@ -2663,29 +2657,29 @@
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="6">
-        <v>81007000</v>
+        <v>81003000</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="16.5">
       <c r="A46" s="3">
-        <v>8100800</v>
+        <v>8100400</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
@@ -2696,120 +2690,134 @@
         <v>100</v>
       </c>
       <c r="K46" s="3"/>
-      <c r="L46" s="6">
-        <v>81008000</v>
+      <c r="L46" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" ht="16.5">
+    <row r="47" spans="1:14" ht="33">
       <c r="A47" s="3">
-        <v>8100900</v>
+        <v>8100500</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
         <v>100</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="6">
-        <v>81009000</v>
+      <c r="L47" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="16.5">
       <c r="A48" s="3">
-        <v>8101000</v>
+        <v>8100600</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3"/>
-      <c r="L48" s="6">
-        <v>81010000</v>
+      <c r="L48" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
     <row r="49" spans="1:14" ht="16.5">
       <c r="A49" s="3">
-        <v>8101001</v>
+        <v>8100700</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
         <v>100</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="6">
-        <v>81010001</v>
+        <v>81007000</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14" ht="16.5">
       <c r="A50" s="3">
-        <v>8101100</v>
+        <v>8100800</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3">
@@ -2821,20 +2829,20 @@
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="6">
-        <v>81011000</v>
+        <v>81008000</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="16.5">
       <c r="A51" s="3">
-        <v>8101101</v>
+        <v>8100900</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>42</v>
@@ -2851,53 +2859,47 @@
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="6">
-        <v>81011001</v>
+        <v>81009000</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="16.5">
       <c r="A52" s="3">
-        <v>8101200</v>
+        <v>8101000</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3"/>
-      <c r="L52" s="6" t="s">
-        <v>93</v>
+      <c r="L52" s="6">
+        <v>81010000</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="3">
-        <v>8101201</v>
+        <v>8101001</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>44</v>
@@ -2917,47 +2919,51 @@
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="6">
-        <v>81012002</v>
+        <v>81010001</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" ht="16.5">
       <c r="A54" s="3">
-        <v>8101300</v>
+        <v>8101100</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>41</v>
+        <v>91</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="6">
-        <v>81013000</v>
+        <v>81011000</v>
       </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" ht="16.5">
       <c r="A55" s="3">
-        <v>8101301</v>
+        <v>8101101</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>44</v>
@@ -2977,31 +2983,33 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="6">
-        <v>81013001</v>
+        <v>81011001</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14" ht="16.5">
       <c r="A56" s="3">
-        <v>8101400</v>
+        <v>8101200</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
@@ -3010,24 +3018,24 @@
         <v>100</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="6">
-        <v>81014000</v>
+      <c r="L56" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="3">
-        <v>8101401</v>
+        <v>8101201</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>41</v>
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>11</v>
@@ -3041,23 +3049,23 @@
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="6">
-        <v>81014001</v>
+        <v>81012002</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" ht="16.5">
       <c r="A58" s="3">
-        <v>8101402</v>
+        <v>8101300</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>11</v>
@@ -3071,89 +3079,87 @@
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="6">
-        <v>81014002</v>
+        <v>81013000</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" ht="16.5">
       <c r="A59" s="3">
-        <v>8101500</v>
+        <v>8101301</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="6">
-        <v>81015000</v>
+        <v>81013001</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
     <row r="60" spans="1:14" ht="16.5">
       <c r="A60" s="3">
-        <v>8101501</v>
+        <v>8101400</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>41</v>
+        <v>123</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="6">
-        <v>81015001</v>
+        <v>81014000</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="16.5">
       <c r="A61" s="3">
-        <v>8101502</v>
+        <v>8101401</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>44</v>
+        <v>124</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>11</v>
@@ -3165,58 +3171,52 @@
       <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="4"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="6">
-        <v>81015002</v>
+        <v>81014001</v>
       </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:14" ht="16.5">
       <c r="A62" s="3">
-        <v>8101600</v>
+        <v>8101402</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3"/>
-      <c r="L62" s="6" t="s">
-        <v>101</v>
+      <c r="L62" s="6">
+        <v>81014002</v>
       </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:14" ht="16.5">
       <c r="A63" s="3">
-        <v>8101700</v>
+        <v>8101500</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>10</v>
@@ -3224,10 +3224,12 @@
       <c r="E63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H63" s="3">
         <v>1</v>
       </c>
@@ -3236,250 +3238,254 @@
         <v>100</v>
       </c>
       <c r="K63" s="3"/>
-      <c r="L63" s="6" t="s">
-        <v>102</v>
+      <c r="L63" s="6">
+        <v>81015000</v>
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" spans="1:14" ht="16.5">
       <c r="A64" s="3">
-        <v>8101800</v>
+        <v>8101501</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
         <v>100</v>
       </c>
       <c r="K64" s="3"/>
-      <c r="L64" s="6" t="s">
-        <v>103</v>
+      <c r="L64" s="6">
+        <v>81015001</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="1:14" ht="16.5">
       <c r="A65" s="3">
-        <v>8101900</v>
+        <v>8101502</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
         <v>100</v>
       </c>
-      <c r="K65" s="3"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="6">
-        <v>81019000</v>
+        <v>81015002</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="1:14" ht="16.5">
       <c r="A66" s="3">
-        <v>8101901</v>
+        <v>8101600</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="6" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14" ht="16.5">
       <c r="A67" s="3">
-        <v>8102000</v>
+        <v>8101700</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
         <v>100</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14" ht="16.5">
       <c r="A68" s="3">
-        <v>8102100</v>
+        <v>8101800</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
         <v>100</v>
       </c>
       <c r="K68" s="3"/>
-      <c r="L68" s="6">
-        <v>81021000</v>
+      <c r="L68" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
     <row r="69" spans="1:14" ht="16.5">
       <c r="A69" s="3">
-        <v>8102200</v>
+        <v>8101900</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
         <v>100</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="6">
-        <v>81022000</v>
+        <v>81019000</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
     <row r="70" spans="1:14" ht="16.5">
       <c r="A70" s="3">
-        <v>8102300</v>
+        <v>8101901</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>129</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
         <v>100</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
     <row r="71" spans="1:14" ht="16.5">
       <c r="A71" s="3">
-        <v>8102400</v>
+        <v>8102000</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>11</v>
@@ -3492,18 +3498,18 @@
         <v>100</v>
       </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="6">
-        <v>81024000</v>
+      <c r="L71" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
     <row r="72" spans="1:14" ht="16.5">
       <c r="A72" s="3">
-        <v>8102401</v>
+        <v>8102100</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>41</v>
@@ -3523,17 +3529,17 @@
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="6">
-        <v>81024001</v>
+        <v>81021000</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="1:14" ht="16.5">
       <c r="A73" s="3">
-        <v>8102500</v>
+        <v>8102200</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>41</v>
@@ -3552,148 +3558,150 @@
         <v>100</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="6" t="s">
-        <v>133</v>
+      <c r="L73" s="6">
+        <v>81022000</v>
       </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="1:14" ht="16.5">
       <c r="A74" s="3">
-        <v>8102501</v>
+        <v>8102300</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3">
         <v>100</v>
       </c>
       <c r="K74" s="3"/>
-      <c r="L74" s="6">
-        <v>81025002</v>
+      <c r="L74" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14" ht="16.5">
       <c r="A75" s="3">
-        <v>8102600</v>
+        <v>8102400</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
+      <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
         <v>100</v>
       </c>
       <c r="K75" s="3"/>
-      <c r="L75" s="6" t="s">
-        <v>111</v>
+      <c r="L75" s="6">
+        <v>81024000</v>
       </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
     <row r="76" spans="1:14" ht="16.5">
-      <c r="A76" s="9">
-        <v>8102700</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="A76" s="3">
+        <v>8102401</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9">
-        <v>100</v>
-      </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10">
-        <v>81027000</v>
-      </c>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
+      <c r="E76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="6">
+        <v>81024001</v>
+      </c>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
     </row>
     <row r="77" spans="1:14" ht="16.5">
-      <c r="A77" s="9">
-        <v>8102800</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="A77" s="3">
+        <v>8102500</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9">
-        <v>100</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="10">
-        <v>81028000</v>
-      </c>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
+      <c r="E77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <v>100</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" ht="16.5">
       <c r="A78" s="3">
-        <v>8102900</v>
+        <v>8102501</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>11</v>
@@ -3706,314 +3714,318 @@
         <v>100</v>
       </c>
       <c r="K78" s="3"/>
-      <c r="L78" s="6" t="s">
-        <v>115</v>
+      <c r="L78" s="6">
+        <v>81025002</v>
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
     <row r="79" spans="1:14" ht="16.5">
       <c r="A79" s="3">
-        <v>8103000</v>
+        <v>8102600</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
         <v>100</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="6">
-        <v>81030000</v>
+      <c r="L79" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
     <row r="80" spans="1:14" ht="16.5">
-      <c r="A80" s="3">
-        <v>8103100</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3">
-        <v>100</v>
-      </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="6">
-        <v>81031000</v>
-      </c>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
+      <c r="A80" s="9">
+        <v>8102700</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9">
+        <v>100</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10">
+        <v>81027000</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
     </row>
     <row r="81" spans="1:14" ht="16.5">
-      <c r="A81" s="3">
-        <v>8103200</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3"/>
-      <c r="L81" s="6">
-        <v>81032000</v>
-      </c>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-    </row>
-    <row r="82" spans="1:14" s="18" customFormat="1" ht="16.5">
-      <c r="A82" s="16">
-        <v>8103300</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="16">
-        <v>2</v>
-      </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16">
-        <v>1</v>
-      </c>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16">
-        <v>100</v>
-      </c>
-      <c r="K82" s="16"/>
-      <c r="L82" s="17">
-        <v>81033000</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="N82" s="17">
-        <v>8103301</v>
-      </c>
+      <c r="A81" s="9">
+        <v>8102800</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9">
+        <v>100</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10">
+        <v>81028000</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.5">
+      <c r="A82" s="3">
+        <v>8102900</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>100</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83" spans="1:14" ht="16.5">
       <c r="A83" s="3">
-        <v>8103301</v>
+        <v>8103000</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="6">
-        <v>81033001</v>
+        <v>81030000</v>
       </c>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
     <row r="84" spans="1:14" ht="16.5">
       <c r="A84" s="3">
-        <v>8103400</v>
+        <v>8103100</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>41</v>
+        <v>117</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
         <v>100</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="6">
-        <v>81034000</v>
+        <v>81031000</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
     </row>
     <row r="85" spans="1:14" ht="16.5">
       <c r="A85" s="3">
-        <v>8103401</v>
+        <v>8103200</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
         <v>100</v>
       </c>
-      <c r="K85" s="4"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="6">
-        <v>81034001</v>
+        <v>81032000</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" ht="16.5">
-      <c r="A86" s="3">
-        <v>8103500</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3">
-        <v>100</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="6">
-        <v>81035000</v>
-      </c>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
+    <row r="86" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A86" s="16">
+        <v>8103300</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="16">
+        <v>2</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16">
+        <v>1</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16">
+        <v>100</v>
+      </c>
+      <c r="K86" s="16"/>
+      <c r="L86" s="17">
+        <v>81033000</v>
+      </c>
+      <c r="M86" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N86" s="17">
+        <v>8103301</v>
+      </c>
     </row>
     <row r="87" spans="1:14" ht="16.5">
       <c r="A87" s="3">
-        <v>8103501</v>
+        <v>8103301</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>41</v>
+        <v>137</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
         <v>100</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="6">
-        <v>81035001</v>
+        <v>81033001</v>
       </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
     <row r="88" spans="1:14" ht="16.5">
       <c r="A88" s="3">
-        <v>8103700</v>
+        <v>8103400</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>44</v>
+        <v>142</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>11</v>
@@ -4025,25 +4037,25 @@
       <c r="J88" s="3">
         <v>100</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="K88" s="3"/>
       <c r="L88" s="6">
-        <v>81037000</v>
+        <v>81034000</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
     </row>
     <row r="89" spans="1:14" ht="16.5">
       <c r="A89" s="3">
-        <v>8103701</v>
+        <v>8103401</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>11</v>
@@ -4055,125 +4067,109 @@
       <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="6">
-        <v>81037001</v>
+        <v>81034001</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
     <row r="90" spans="1:14" ht="16.5">
       <c r="A90" s="3">
-        <v>8103800</v>
+        <v>8103500</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>9</v>
+        <v>144</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="3">
-        <v>3</v>
-      </c>
+      <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
         <v>100</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="6">
-        <v>81038000</v>
+        <v>81035000</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
     <row r="91" spans="1:14" ht="16.5">
       <c r="A91" s="3">
-        <v>8103900</v>
+        <v>8103501</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>16</v>
+        <v>145</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="3">
-        <v>2</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
+      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
         <v>100</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="6">
-        <v>81039000</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N91" s="6">
-        <v>8103901</v>
-      </c>
+        <v>81035001</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
     </row>
     <row r="92" spans="1:14" ht="16.5">
       <c r="A92" s="3">
-        <v>8103901</v>
+        <v>8103700</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
+      <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3">
         <v>100</v>
       </c>
-      <c r="K92" s="3"/>
+      <c r="K92" s="4"/>
       <c r="L92" s="6">
-        <v>81039001</v>
+        <v>81037000</v>
       </c>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
     <row r="93" spans="1:14" ht="16.5">
       <c r="A93" s="3">
-        <v>8104000</v>
+        <v>8103701</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>41</v>
@@ -4193,20 +4189,20 @@
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="6">
-        <v>81040000</v>
+        <v>81037001</v>
       </c>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
     </row>
     <row r="94" spans="1:14" ht="16.5">
       <c r="A94" s="3">
-        <v>8104100</v>
+        <v>8103800</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>10</v>
@@ -4215,11 +4211,11 @@
         <v>11</v>
       </c>
       <c r="F94" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3">
@@ -4227,20 +4223,20 @@
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="6">
-        <v>81041000</v>
+        <v>81038000</v>
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
     <row r="95" spans="1:14" ht="16.5">
       <c r="A95" s="3">
-        <v>8104200</v>
+        <v>8103900</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>10</v>
@@ -4249,7 +4245,7 @@
         <v>11</v>
       </c>
       <c r="F95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
@@ -4261,17 +4257,21 @@
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="6">
-        <v>81042000</v>
-      </c>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
+        <v>81039000</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N95" s="6">
+        <v>8103901</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="16.5">
       <c r="A96" s="3">
-        <v>8104300</v>
+        <v>8103901</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>16</v>
@@ -4283,13 +4283,11 @@
         <v>11</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G96" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G96" s="3"/>
       <c r="H96" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
@@ -4297,23 +4295,23 @@
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="6">
-        <v>81043000</v>
+        <v>81039001</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
     <row r="97" spans="1:14" ht="16.5">
       <c r="A97" s="3">
-        <v>8104400</v>
+        <v>8104000</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>11</v>
@@ -4327,29 +4325,29 @@
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="6">
-        <v>81044000</v>
+        <v>81040000</v>
       </c>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
     </row>
     <row r="98" spans="1:14" ht="16.5">
       <c r="A98" s="3">
-        <v>8104500</v>
+        <v>8104100</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
@@ -4359,28 +4357,28 @@
       <c r="J98" s="3">
         <v>100</v>
       </c>
-      <c r="K98" s="4"/>
+      <c r="K98" s="3"/>
       <c r="L98" s="6">
-        <v>81045000</v>
+        <v>81041000</v>
       </c>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
     </row>
     <row r="99" spans="1:14" ht="16.5">
       <c r="A99" s="3">
-        <v>8104600</v>
+        <v>8104200</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -4393,53 +4391,55 @@
       <c r="J99" s="3">
         <v>100</v>
       </c>
-      <c r="K99" s="4"/>
+      <c r="K99" s="3"/>
       <c r="L99" s="6">
-        <v>81046000</v>
+        <v>81042000</v>
       </c>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
     </row>
     <row r="100" spans="1:14" ht="16.5">
       <c r="A100" s="3">
-        <v>8104601</v>
+        <v>8104300</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H100" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="4"/>
+      <c r="K100" s="3"/>
       <c r="L100" s="6">
-        <v>81046001</v>
+        <v>81043000</v>
       </c>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
     </row>
     <row r="101" spans="1:14" ht="16.5">
       <c r="A101" s="3">
-        <v>8104700</v>
+        <v>8104400</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>41</v>
@@ -4459,107 +4459,119 @@
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="6">
-        <v>81047000</v>
+        <v>81044000</v>
       </c>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
     </row>
     <row r="102" spans="1:14" ht="16.5">
       <c r="A102" s="3">
-        <v>9999100</v>
+        <v>8104500</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3">
-        <v>99991000</v>
+      <c r="K102" s="4"/>
+      <c r="L102" s="6">
+        <v>81045000</v>
       </c>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
     <row r="103" spans="1:14" ht="16.5">
       <c r="A103" s="3">
-        <v>9999200</v>
+        <v>8104600</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
         <v>100</v>
       </c>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3">
-        <v>99992000</v>
+      <c r="K103" s="4"/>
+      <c r="L103" s="6">
+        <v>81046000</v>
       </c>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
     <row r="104" spans="1:14" ht="16.5">
       <c r="A104" s="3">
-        <v>9999300</v>
+        <v>8104601</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
         <v>100</v>
       </c>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3">
-        <v>99993000</v>
+      <c r="K104" s="4"/>
+      <c r="L104" s="6">
+        <v>81046001</v>
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
     </row>
     <row r="105" spans="1:14" ht="16.5">
       <c r="A105" s="3">
-        <v>9999400</v>
+        <v>8104700</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>41</v>
@@ -4578,11 +4590,81 @@
         <v>100</v>
       </c>
       <c r="K105" s="3"/>
-      <c r="L105" s="3">
-        <v>99994000</v>
+      <c r="L105" s="6">
+        <v>81047000</v>
       </c>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="1:14" ht="16.5">
+      <c r="A106" s="3">
+        <v>8104800</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <v>100</v>
+      </c>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3">
+        <v>81048000</v>
+      </c>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="1:14" ht="16.5">
+      <c r="A107" s="3">
+        <v>8104801</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
+        <v>100</v>
+      </c>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3">
+        <v>81048001</v>
+      </c>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A1792-204F-4A5F-A40F-0218C75D0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56E134-F6D4-4ABB-B40D-3C174A0FFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="170">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -642,6 +642,14 @@
   </si>
   <si>
     <t>2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,11 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2556,98 +2564,88 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5">
-      <c r="A43" s="3">
-        <v>8100100</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.5">
-      <c r="A44" s="3">
-        <v>8100200</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>2</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+    <row r="43" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A43" s="16">
+        <v>9999500</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16">
+        <v>100</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16">
+        <v>99995000</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A44" s="16">
+        <v>9999600</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16">
+        <v>100</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16">
+        <v>99996000</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
     </row>
     <row r="45" spans="1:14" ht="16.5">
       <c r="A45" s="3">
-        <v>8100300</v>
+        <v>8100100</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
@@ -2656,61 +2654,63 @@
         <v>100</v>
       </c>
       <c r="K45" s="3"/>
-      <c r="L45" s="6">
-        <v>81003000</v>
+      <c r="L45" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="16.5">
       <c r="A46" s="3">
-        <v>8100400</v>
+        <v>8100200</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.5</v>
+      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" ht="33">
+    <row r="47" spans="1:14" ht="16.5">
       <c r="A47" s="3">
-        <v>8100500</v>
+        <v>8100300</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -2724,21 +2724,21 @@
         <v>100</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="6" t="s">
-        <v>80</v>
+      <c r="L47" s="6">
+        <v>81003000</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="16.5">
       <c r="A48" s="3">
-        <v>8100600</v>
+        <v>8100400</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>10</v>
@@ -2746,12 +2746,10 @@
       <c r="E48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="3">
         <v>1</v>
       </c>
@@ -2761,17 +2759,17 @@
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5">
+    <row r="49" spans="1:14" ht="33">
       <c r="A49" s="3">
-        <v>8100700</v>
+        <v>8100500</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
@@ -2780,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -2794,32 +2792,34 @@
         <v>100</v>
       </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="6">
-        <v>81007000</v>
+      <c r="L49" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14" ht="16.5">
       <c r="A50" s="3">
-        <v>8100800</v>
+        <v>8100600</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="3">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H50" s="3">
         <v>1</v>
       </c>
@@ -2828,81 +2828,89 @@
         <v>100</v>
       </c>
       <c r="K50" s="3"/>
-      <c r="L50" s="6">
-        <v>81008000</v>
+      <c r="L50" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="16.5">
       <c r="A51" s="3">
-        <v>8100900</v>
+        <v>8100700</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
         <v>100</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="6">
-        <v>81009000</v>
+        <v>81007000</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="16.5">
       <c r="A52" s="3">
-        <v>8101000</v>
+        <v>8100800</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="6">
-        <v>81010000</v>
+        <v>81008000</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="3">
-        <v>8101001</v>
+        <v>8100900</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>42</v>
@@ -2919,51 +2927,47 @@
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="6">
-        <v>81010001</v>
+        <v>81009000</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" ht="16.5">
       <c r="A54" s="3">
-        <v>8101100</v>
+        <v>8101000</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="6">
-        <v>81011000</v>
+        <v>81010000</v>
       </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" ht="16.5">
       <c r="A55" s="3">
-        <v>8101101</v>
+        <v>8101001</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>44</v>
@@ -2983,17 +2987,17 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="6">
-        <v>81011001</v>
+        <v>81010001</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14" ht="16.5">
       <c r="A56" s="3">
-        <v>8101200</v>
+        <v>8101100</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
@@ -3004,12 +3008,10 @@
       <c r="E56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="3">
         <v>1</v>
       </c>
@@ -3018,18 +3020,18 @@
         <v>100</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="6" t="s">
-        <v>93</v>
+      <c r="L56" s="6">
+        <v>81011000</v>
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="3">
-        <v>8101201</v>
+        <v>8101101</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>44</v>
@@ -3049,47 +3051,53 @@
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="6">
-        <v>81012002</v>
+        <v>81011001</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" ht="16.5">
       <c r="A58" s="3">
-        <v>8101300</v>
+        <v>8101200</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="6">
-        <v>81013000</v>
+      <c r="L58" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" ht="16.5">
       <c r="A59" s="3">
-        <v>8101301</v>
+        <v>8101201</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>44</v>
@@ -3109,57 +3117,53 @@
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="6">
-        <v>81013001</v>
+        <v>81012002</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
     <row r="60" spans="1:14" ht="16.5">
       <c r="A60" s="3">
-        <v>8101400</v>
+        <v>8101300</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="6">
-        <v>81014000</v>
+        <v>81013000</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="16.5">
       <c r="A61" s="3">
-        <v>8101401</v>
+        <v>8101301</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>41</v>
+        <v>122</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>11</v>
@@ -3173,89 +3177,87 @@
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="6">
-        <v>81014001</v>
+        <v>81013001</v>
       </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:14" ht="16.5">
       <c r="A62" s="3">
-        <v>8101402</v>
+        <v>8101400</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="6">
-        <v>81014002</v>
+        <v>81014000</v>
       </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:14" ht="16.5">
       <c r="A63" s="3">
-        <v>8101500</v>
+        <v>8101401</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>124</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3">
         <v>100</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="6">
-        <v>81015000</v>
+        <v>81014001</v>
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" spans="1:14" ht="16.5">
       <c r="A64" s="3">
-        <v>8101501</v>
+        <v>8101402</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>41</v>
+        <v>125</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>11</v>
@@ -3269,117 +3271,113 @@
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="6">
-        <v>81015001</v>
+        <v>81014002</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="1:14" ht="16.5">
       <c r="A65" s="3">
-        <v>8101502</v>
+        <v>8101500</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
         <v>100</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="6">
-        <v>81015002</v>
+        <v>81015000</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="1:14" ht="16.5">
       <c r="A66" s="3">
-        <v>8101600</v>
+        <v>8101501</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3"/>
-      <c r="L66" s="6" t="s">
-        <v>101</v>
+      <c r="L66" s="6">
+        <v>81015001</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14" ht="16.5">
       <c r="A67" s="3">
-        <v>8101700</v>
+        <v>8101502</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
         <v>100</v>
       </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="6" t="s">
-        <v>102</v>
+      <c r="K67" s="4"/>
+      <c r="L67" s="6">
+        <v>81015002</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14" ht="16.5">
       <c r="A68" s="3">
-        <v>8101800</v>
+        <v>8101600</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
@@ -3391,7 +3389,7 @@
         <v>75</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G68" s="3" t="b">
         <v>1</v>
@@ -3405,26 +3403,26 @@
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
     <row r="69" spans="1:14" ht="16.5">
       <c r="A69" s="3">
-        <v>8101900</v>
+        <v>8101700</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F69" s="3">
         <v>1</v>
@@ -3438,84 +3436,94 @@
         <v>100</v>
       </c>
       <c r="K69" s="3"/>
-      <c r="L69" s="6">
-        <v>81019000</v>
+      <c r="L69" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
     <row r="70" spans="1:14" ht="16.5">
       <c r="A70" s="3">
-        <v>8101901</v>
+        <v>8101800</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
         <v>100</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="6" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
     <row r="71" spans="1:14" ht="16.5">
       <c r="A71" s="3">
-        <v>8102000</v>
+        <v>8101900</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
         <v>100</v>
       </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="6" t="s">
-        <v>104</v>
+      <c r="L71" s="6">
+        <v>81019000</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
     <row r="72" spans="1:14" ht="16.5">
       <c r="A72" s="3">
-        <v>8102100</v>
+        <v>8101901</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>11</v>
@@ -3528,24 +3536,24 @@
         <v>100</v>
       </c>
       <c r="K72" s="3"/>
-      <c r="L72" s="6">
-        <v>81021000</v>
+      <c r="L72" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="1:14" ht="16.5">
       <c r="A73" s="3">
-        <v>8102200</v>
+        <v>8102000</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>11</v>
@@ -3558,54 +3566,48 @@
         <v>100</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="6">
-        <v>81022000</v>
+      <c r="L73" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="1:14" ht="16.5">
       <c r="A74" s="3">
-        <v>8102300</v>
+        <v>8102100</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3">
         <v>100</v>
       </c>
       <c r="K74" s="3"/>
-      <c r="L74" s="6" t="s">
-        <v>108</v>
+      <c r="L74" s="6">
+        <v>81021000</v>
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14" ht="16.5">
       <c r="A75" s="3">
-        <v>8102400</v>
+        <v>8102200</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>41</v>
@@ -3625,47 +3627,53 @@
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="6">
-        <v>81024000</v>
+        <v>81022000</v>
       </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
     <row r="76" spans="1:14" ht="16.5">
       <c r="A76" s="3">
-        <v>8102401</v>
+        <v>8102300</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3"/>
-      <c r="L76" s="6">
-        <v>81024001</v>
+      <c r="L76" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
     <row r="77" spans="1:14" ht="16.5">
       <c r="A77" s="3">
-        <v>8102500</v>
+        <v>8102400</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>41</v>
@@ -3684,24 +3692,24 @@
         <v>100</v>
       </c>
       <c r="K77" s="3"/>
-      <c r="L77" s="6" t="s">
-        <v>133</v>
+      <c r="L77" s="6">
+        <v>81024000</v>
       </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" ht="16.5">
       <c r="A78" s="3">
-        <v>8102501</v>
+        <v>8102401</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>11</v>
@@ -3715,280 +3723,268 @@
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="6">
-        <v>81025002</v>
+        <v>81024001</v>
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
     <row r="79" spans="1:14" ht="16.5">
       <c r="A79" s="3">
-        <v>8102600</v>
+        <v>8102500</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
         <v>100</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="6" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
     <row r="80" spans="1:14" ht="16.5">
-      <c r="A80" s="9">
+      <c r="A80" s="3">
+        <v>8102501</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>100</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="6">
+        <v>81025002</v>
+      </c>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="1:14" ht="16.5">
+      <c r="A81" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.5">
+      <c r="A82" s="9">
         <v>8102700</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9">
-        <v>100</v>
-      </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="10">
+      <c r="E82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9">
+        <v>100</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10">
         <v>81027000</v>
       </c>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-    </row>
-    <row r="81" spans="1:14" ht="16.5">
-      <c r="A81" s="9">
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.5">
+      <c r="A83" s="9">
         <v>8102800</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9">
-        <v>100</v>
-      </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="10">
+      <c r="E83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9">
+        <v>100</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10">
         <v>81028000</v>
       </c>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-    </row>
-    <row r="82" spans="1:14" ht="16.5">
-      <c r="A82" s="3">
-        <v>8102900</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3">
-        <v>100</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-    </row>
-    <row r="83" spans="1:14" ht="16.5">
-      <c r="A83" s="3">
-        <v>8103000</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="6">
-        <v>81030000</v>
-      </c>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
     </row>
     <row r="84" spans="1:14" ht="16.5">
       <c r="A84" s="3">
-        <v>8103100</v>
+        <v>8102900</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="3">
-        <v>1</v>
-      </c>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
         <v>100</v>
       </c>
       <c r="K84" s="3"/>
-      <c r="L84" s="6">
-        <v>81031000</v>
+      <c r="L84" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
     </row>
     <row r="85" spans="1:14" ht="16.5">
       <c r="A85" s="3">
-        <v>8103200</v>
+        <v>8103000</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3">
-        <v>1</v>
-      </c>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
         <v>100</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="6">
-        <v>81032000</v>
+        <v>81030000</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" s="18" customFormat="1" ht="16.5">
-      <c r="A86" s="16">
-        <v>8103300</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="16" t="s">
+    <row r="86" spans="1:14" ht="16.5">
+      <c r="A86" s="3">
+        <v>8103100</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="16">
-        <v>2</v>
-      </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16">
-        <v>1</v>
-      </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16">
-        <v>100</v>
-      </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="17">
-        <v>81033000</v>
-      </c>
-      <c r="M86" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="N86" s="17">
-        <v>8103301</v>
-      </c>
+      <c r="E86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <v>100</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="6">
+        <v>81031000</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
     </row>
     <row r="87" spans="1:14" ht="16.5">
       <c r="A87" s="3">
-        <v>8103301</v>
+        <v>8103200</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>10</v>
@@ -3996,8 +3992,8 @@
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>138</v>
+      <c r="F87" s="3">
+        <v>1</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3">
@@ -4009,77 +4005,89 @@
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="6">
-        <v>81033001</v>
+        <v>81032000</v>
       </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" ht="16.5">
-      <c r="A88" s="3">
-        <v>8103400</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3">
-        <v>100</v>
-      </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="6">
-        <v>81034000</v>
-      </c>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
+    <row r="88" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A88" s="16">
+        <v>8103300</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="16">
+        <v>2</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16">
+        <v>1</v>
+      </c>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16">
+        <v>100</v>
+      </c>
+      <c r="K88" s="16"/>
+      <c r="L88" s="17">
+        <v>81033000</v>
+      </c>
+      <c r="M88" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N88" s="17">
+        <v>8103301</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="16.5">
       <c r="A89" s="3">
-        <v>8103401</v>
+        <v>8103301</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="4"/>
+      <c r="K89" s="3"/>
       <c r="L89" s="6">
-        <v>81034001</v>
+        <v>81033001</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
     <row r="90" spans="1:14" ht="16.5">
       <c r="A90" s="3">
-        <v>8103500</v>
+        <v>8103400</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>41</v>
@@ -4099,23 +4107,23 @@
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="6">
-        <v>81035000</v>
+        <v>81034000</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
     <row r="91" spans="1:14" ht="16.5">
       <c r="A91" s="3">
-        <v>8103501</v>
+        <v>8103401</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>11</v>
@@ -4127,25 +4135,25 @@
       <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3"/>
+      <c r="K91" s="4"/>
       <c r="L91" s="6">
-        <v>81035001</v>
+        <v>81034001</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
     </row>
     <row r="92" spans="1:14" ht="16.5">
       <c r="A92" s="3">
-        <v>8103700</v>
+        <v>8103500</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>11</v>
@@ -4157,19 +4165,19 @@
       <c r="J92" s="3">
         <v>100</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="3"/>
       <c r="L92" s="6">
-        <v>81037000</v>
+        <v>81035000</v>
       </c>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
     <row r="93" spans="1:14" ht="16.5">
       <c r="A93" s="3">
-        <v>8103701</v>
+        <v>8103501</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>41</v>
@@ -4189,92 +4197,80 @@
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="6">
-        <v>81037001</v>
+        <v>81035001</v>
       </c>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
     </row>
     <row r="94" spans="1:14" ht="16.5">
       <c r="A94" s="3">
-        <v>8103800</v>
+        <v>8103700</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3">
-        <v>3</v>
-      </c>
+      <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3"/>
+      <c r="K94" s="4"/>
       <c r="L94" s="6">
-        <v>81038000</v>
+        <v>81037000</v>
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
     <row r="95" spans="1:14" ht="16.5">
       <c r="A95" s="3">
-        <v>8103900</v>
+        <v>8103701</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>16</v>
+        <v>147</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="3">
-        <v>2</v>
-      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
+      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3">
         <v>100</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="6">
-        <v>81039000</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N95" s="6">
-        <v>8103901</v>
-      </c>
+        <v>81037001</v>
+      </c>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
     </row>
     <row r="96" spans="1:14" ht="16.5">
       <c r="A96" s="3">
-        <v>8103901</v>
+        <v>8103800</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>10</v>
@@ -4282,12 +4278,12 @@
       <c r="E96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>138</v>
+      <c r="F96" s="3">
+        <v>1</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
@@ -4295,47 +4291,55 @@
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="6">
-        <v>81039001</v>
+        <v>81038000</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
     <row r="97" spans="1:14" ht="16.5">
       <c r="A97" s="3">
-        <v>8104000</v>
+        <v>8103900</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>41</v>
+        <v>149</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
         <v>100</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="6">
-        <v>81040000</v>
-      </c>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
+        <v>81039000</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N97" s="6">
+        <v>8103901</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="16.5">
       <c r="A98" s="3">
-        <v>8104100</v>
+        <v>8103901</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>16</v>
@@ -4346,8 +4350,8 @@
       <c r="E98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="3">
-        <v>2</v>
+      <c r="F98" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
@@ -4359,51 +4363,47 @@
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="6">
-        <v>81041000</v>
+        <v>81039001</v>
       </c>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
     </row>
     <row r="99" spans="1:14" ht="16.5">
       <c r="A99" s="3">
-        <v>8104200</v>
+        <v>8104000</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
+      <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3">
         <v>100</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="6">
-        <v>81042000</v>
+        <v>81040000</v>
       </c>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
     </row>
     <row r="100" spans="1:14" ht="16.5">
       <c r="A100" s="3">
-        <v>8104300</v>
+        <v>8104100</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>16</v>
@@ -4414,14 +4414,12 @@
       <c r="E100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3">
@@ -4429,124 +4427,126 @@
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="6">
-        <v>81043000</v>
+        <v>81041000</v>
       </c>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
     </row>
     <row r="101" spans="1:14" ht="16.5">
       <c r="A101" s="3">
-        <v>8104400</v>
+        <v>8104200</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="6">
-        <v>81044000</v>
+        <v>81042000</v>
       </c>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
     </row>
     <row r="102" spans="1:14" ht="16.5">
       <c r="A102" s="3">
-        <v>8104500</v>
+        <v>8104300</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G102" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H102" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="4"/>
+      <c r="K102" s="3"/>
       <c r="L102" s="6">
-        <v>81045000</v>
+        <v>81043000</v>
       </c>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
     <row r="103" spans="1:14" ht="16.5">
       <c r="A103" s="3">
-        <v>8104600</v>
+        <v>8104400</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="3">
-        <v>1</v>
-      </c>
+      <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
         <v>100</v>
       </c>
-      <c r="K103" s="4"/>
+      <c r="K103" s="3"/>
       <c r="L103" s="6">
-        <v>81046000</v>
+        <v>81044000</v>
       </c>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
     <row r="104" spans="1:14" ht="16.5">
       <c r="A104" s="3">
-        <v>8104601</v>
+        <v>8104500</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -4561,56 +4561,60 @@
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="6">
-        <v>81046001</v>
+        <v>81045000</v>
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
     </row>
     <row r="105" spans="1:14" ht="16.5">
       <c r="A105" s="3">
-        <v>8104700</v>
+        <v>8104600</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
       <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3">
         <v>100</v>
       </c>
-      <c r="K105" s="3"/>
+      <c r="K105" s="4"/>
       <c r="L105" s="6">
-        <v>81047000</v>
+        <v>81046000</v>
       </c>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
     </row>
     <row r="106" spans="1:14" ht="16.5">
       <c r="A106" s="3">
-        <v>8104800</v>
+        <v>8104601</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -4623,48 +4627,112 @@
       <c r="J106" s="3">
         <v>100</v>
       </c>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3">
-        <v>81048000</v>
+      <c r="K106" s="4"/>
+      <c r="L106" s="6">
+        <v>81046001</v>
       </c>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
     </row>
     <row r="107" spans="1:14" ht="16.5">
       <c r="A107" s="3">
-        <v>8104801</v>
+        <v>8104700</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G107" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="3">
-        <v>1</v>
-      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3">
         <v>100</v>
       </c>
       <c r="K107" s="3"/>
-      <c r="L107" s="3">
-        <v>81048001</v>
+      <c r="L107" s="6">
+        <v>81047000</v>
       </c>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="1:14" ht="16.5">
+      <c r="A108" s="3">
+        <v>8104800</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
+        <v>100</v>
+      </c>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3">
+        <v>81048000</v>
+      </c>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="1:14" ht="16.5">
+      <c r="A109" s="3">
+        <v>8104801</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3">
+        <v>100</v>
+      </c>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3">
+        <v>81048001</v>
+      </c>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56E134-F6D4-4ABB-B40D-3C174A0FFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27939E48-55AB-4089-942D-9C08E57C4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="172">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -650,6 +650,14 @@
   </si>
   <si>
     <t>만복도 지속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 킹 근거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 킹 근거리 버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4734,6 +4742,100 @@
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
     </row>
+    <row r="110" spans="1:14" ht="16.5">
+      <c r="A110" s="3">
+        <v>8104900</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <v>100</v>
+      </c>
+      <c r="K110" s="3"/>
+      <c r="L110" s="6">
+        <v>81049000</v>
+      </c>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+    </row>
+    <row r="111" spans="1:14" ht="16.5">
+      <c r="A111" s="3">
+        <v>8104901</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <v>100</v>
+      </c>
+      <c r="K111" s="3"/>
+      <c r="L111" s="6">
+        <v>81049001</v>
+      </c>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+    </row>
+    <row r="112" spans="1:14" ht="16.5">
+      <c r="A112" s="3">
+        <v>8104902</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3">
+        <v>100</v>
+      </c>
+      <c r="K112" s="3"/>
+      <c r="L112" s="6">
+        <v>81049002</v>
+      </c>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27939E48-55AB-4089-942D-9C08E57C4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B44985-98BF-42FD-B9B0-6983AD8AED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="174">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -658,6 +658,14 @@
   </si>
   <si>
     <t>슬라임 킹 근거리 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81050000, 81050001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,11 +1182,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4836,6 +4844,36 @@
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
     </row>
+    <row r="113" spans="1:14" ht="16.5">
+      <c r="A113" s="3">
+        <v>8105000</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3">
+        <v>100</v>
+      </c>
+      <c r="K113" s="3"/>
+      <c r="L113" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B44985-98BF-42FD-B9B0-6983AD8AED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753003F8-720D-4045-AA49-CF53C29DCF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="177">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -666,6 +666,18 @@
   </si>
   <si>
     <t>81050000, 81050001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식_카드소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81053001, 81053002, 81053003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4874,6 +4886,66 @@
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
     </row>
+    <row r="114" spans="1:14" ht="16.5">
+      <c r="A114" s="3">
+        <v>8105300</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3">
+        <v>100</v>
+      </c>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3">
+        <v>81053000</v>
+      </c>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+    </row>
+    <row r="115" spans="1:14" ht="16.5">
+      <c r="A115" s="3">
+        <v>8105301</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3">
+        <v>100</v>
+      </c>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753003F8-720D-4045-AA49-CF53C29DCF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E6741-FA4B-4241-8B56-F39455DD106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="179">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -678,6 +678,14 @@
   </si>
   <si>
     <t>81053001, 81053002, 81053003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 최대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,11 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L116" sqref="L116"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2652,98 +2660,88 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14" ht="16.5">
-      <c r="A45" s="3">
-        <v>8100100</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" ht="16.5">
-      <c r="A46" s="3">
-        <v>8100200</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
-        <v>2</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+    <row r="45" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A45" s="16">
+        <v>9999700</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16">
+        <v>100</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16">
+        <v>99997000</v>
+      </c>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A46" s="16">
+        <v>9999800</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
+        <v>100</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16">
+        <v>99998000</v>
+      </c>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
     </row>
     <row r="47" spans="1:14" ht="16.5">
       <c r="A47" s="3">
-        <v>8100300</v>
+        <v>8100100</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
@@ -2752,61 +2750,63 @@
         <v>100</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="6">
-        <v>81003000</v>
+      <c r="L47" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="16.5">
       <c r="A48" s="3">
-        <v>8100400</v>
+        <v>8100200</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.5</v>
+      </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" ht="33">
+    <row r="49" spans="1:14" ht="16.5">
       <c r="A49" s="3">
-        <v>8100500</v>
+        <v>8100300</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -2820,21 +2820,21 @@
         <v>100</v>
       </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="6" t="s">
-        <v>80</v>
+      <c r="L49" s="6">
+        <v>81003000</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14" ht="16.5">
       <c r="A50" s="3">
-        <v>8100600</v>
+        <v>8100400</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
@@ -2842,12 +2842,10 @@
       <c r="E50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3"/>
       <c r="H50" s="3">
         <v>1</v>
       </c>
@@ -2857,17 +2855,17 @@
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" ht="16.5">
+    <row r="51" spans="1:14" ht="33">
       <c r="A51" s="3">
-        <v>8100700</v>
+        <v>8100500</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
@@ -2876,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -2890,32 +2888,34 @@
         <v>100</v>
       </c>
       <c r="K51" s="3"/>
-      <c r="L51" s="6">
-        <v>81007000</v>
+      <c r="L51" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="16.5">
       <c r="A52" s="3">
-        <v>8100800</v>
+        <v>8100600</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H52" s="3">
         <v>1</v>
       </c>
@@ -2924,81 +2924,89 @@
         <v>100</v>
       </c>
       <c r="K52" s="3"/>
-      <c r="L52" s="6">
-        <v>81008000</v>
+      <c r="L52" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="3">
-        <v>8100900</v>
+        <v>8100700</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3">
         <v>100</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="6">
-        <v>81009000</v>
+        <v>81007000</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" ht="16.5">
       <c r="A54" s="3">
-        <v>8101000</v>
+        <v>8100800</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="6">
-        <v>81010000</v>
+        <v>81008000</v>
       </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" ht="16.5">
       <c r="A55" s="3">
-        <v>8101001</v>
+        <v>8100900</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>42</v>
@@ -3015,51 +3023,47 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="6">
-        <v>81010001</v>
+        <v>81009000</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14" ht="16.5">
       <c r="A56" s="3">
-        <v>8101100</v>
+        <v>8101000</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3">
         <v>100</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="6">
-        <v>81011000</v>
+        <v>81010000</v>
       </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="3">
-        <v>8101101</v>
+        <v>8101001</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>44</v>
@@ -3079,17 +3083,17 @@
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="6">
-        <v>81011001</v>
+        <v>81010001</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" ht="16.5">
       <c r="A58" s="3">
-        <v>8101200</v>
+        <v>8101100</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
@@ -3100,12 +3104,10 @@
       <c r="E58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="3">
         <v>1</v>
       </c>
@@ -3114,18 +3116,18 @@
         <v>100</v>
       </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="6" t="s">
-        <v>93</v>
+      <c r="L58" s="6">
+        <v>81011000</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
     <row r="59" spans="1:14" ht="16.5">
       <c r="A59" s="3">
-        <v>8101201</v>
+        <v>8101101</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>44</v>
@@ -3145,47 +3147,53 @@
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="6">
-        <v>81012002</v>
+        <v>81011001</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
     <row r="60" spans="1:14" ht="16.5">
       <c r="A60" s="3">
-        <v>8101300</v>
+        <v>8101200</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>41</v>
+        <v>92</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3"/>
-      <c r="L60" s="6">
-        <v>81013000</v>
+      <c r="L60" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
     <row r="61" spans="1:14" ht="16.5">
       <c r="A61" s="3">
-        <v>8101301</v>
+        <v>8101201</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>44</v>
@@ -3205,57 +3213,53 @@
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="6">
-        <v>81013001</v>
+        <v>81012002</v>
       </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:14" ht="16.5">
       <c r="A62" s="3">
-        <v>8101400</v>
+        <v>8101300</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>94</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="3">
-        <v>1</v>
-      </c>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="6">
-        <v>81014000</v>
+        <v>81013000</v>
       </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:14" ht="16.5">
       <c r="A63" s="3">
-        <v>8101401</v>
+        <v>8101301</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>41</v>
+        <v>122</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
@@ -3269,89 +3273,87 @@
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="6">
-        <v>81014001</v>
+        <v>81013001</v>
       </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" spans="1:14" ht="16.5">
       <c r="A64" s="3">
-        <v>8101402</v>
+        <v>8101400</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
         <v>100</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="6">
-        <v>81014002</v>
+        <v>81014000</v>
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="1:14" ht="16.5">
       <c r="A65" s="3">
-        <v>8101500</v>
+        <v>8101401</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>124</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
         <v>100</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="6">
-        <v>81015000</v>
+        <v>81014001</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="1:14" ht="16.5">
       <c r="A66" s="3">
-        <v>8101501</v>
+        <v>8101402</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>41</v>
+        <v>125</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>11</v>
@@ -3365,117 +3367,113 @@
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="6">
-        <v>81015001</v>
+        <v>81014002</v>
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="1:14" ht="16.5">
       <c r="A67" s="3">
-        <v>8101502</v>
+        <v>8101500</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
         <v>100</v>
       </c>
-      <c r="K67" s="4"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="6">
-        <v>81015002</v>
+        <v>81015000</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="1:14" ht="16.5">
       <c r="A68" s="3">
-        <v>8101600</v>
+        <v>8101501</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3">
         <v>100</v>
       </c>
       <c r="K68" s="3"/>
-      <c r="L68" s="6" t="s">
-        <v>101</v>
+      <c r="L68" s="6">
+        <v>81015001</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
     <row r="69" spans="1:14" ht="16.5">
       <c r="A69" s="3">
-        <v>8101700</v>
+        <v>8101502</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
         <v>100</v>
       </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="6" t="s">
-        <v>102</v>
+      <c r="K69" s="4"/>
+      <c r="L69" s="6">
+        <v>81015002</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
     <row r="70" spans="1:14" ht="16.5">
       <c r="A70" s="3">
-        <v>8101800</v>
+        <v>8101600</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
@@ -3487,7 +3485,7 @@
         <v>75</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G70" s="3" t="b">
         <v>1</v>
@@ -3501,26 +3499,26 @@
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
     <row r="71" spans="1:14" ht="16.5">
       <c r="A71" s="3">
-        <v>8101900</v>
+        <v>8101700</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F71" s="3">
         <v>1</v>
@@ -3534,84 +3532,94 @@
         <v>100</v>
       </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="6">
-        <v>81019000</v>
+      <c r="L71" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
     <row r="72" spans="1:14" ht="16.5">
       <c r="A72" s="3">
-        <v>8101901</v>
+        <v>8101800</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3">
         <v>100</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="6" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="1:14" ht="16.5">
       <c r="A73" s="3">
-        <v>8102000</v>
+        <v>8101900</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
       <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3">
         <v>100</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="L73" s="6" t="s">
-        <v>104</v>
+      <c r="L73" s="6">
+        <v>81019000</v>
       </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="1:14" ht="16.5">
       <c r="A74" s="3">
-        <v>8102100</v>
+        <v>8101901</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>11</v>
@@ -3624,24 +3632,24 @@
         <v>100</v>
       </c>
       <c r="K74" s="3"/>
-      <c r="L74" s="6">
-        <v>81021000</v>
+      <c r="L74" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14" ht="16.5">
       <c r="A75" s="3">
-        <v>8102200</v>
+        <v>8102000</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
@@ -3654,54 +3662,48 @@
         <v>100</v>
       </c>
       <c r="K75" s="3"/>
-      <c r="L75" s="6">
-        <v>81022000</v>
+      <c r="L75" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
     <row r="76" spans="1:14" ht="16.5">
       <c r="A76" s="3">
-        <v>8102300</v>
+        <v>8102100</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3"/>
-      <c r="L76" s="6" t="s">
-        <v>108</v>
+      <c r="L76" s="6">
+        <v>81021000</v>
       </c>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
     <row r="77" spans="1:14" ht="16.5">
       <c r="A77" s="3">
-        <v>8102400</v>
+        <v>8102200</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>41</v>
@@ -3721,47 +3723,53 @@
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="6">
-        <v>81024000</v>
+        <v>81022000</v>
       </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" ht="16.5">
       <c r="A78" s="3">
-        <v>8102401</v>
+        <v>8102300</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3">
         <v>100</v>
       </c>
       <c r="K78" s="3"/>
-      <c r="L78" s="6">
-        <v>81024001</v>
+      <c r="L78" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
     <row r="79" spans="1:14" ht="16.5">
       <c r="A79" s="3">
-        <v>8102500</v>
+        <v>8102400</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>41</v>
@@ -3780,24 +3788,24 @@
         <v>100</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="6" t="s">
-        <v>133</v>
+      <c r="L79" s="6">
+        <v>81024000</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
     <row r="80" spans="1:14" ht="16.5">
       <c r="A80" s="3">
-        <v>8102501</v>
+        <v>8102401</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>11</v>
@@ -3811,280 +3819,268 @@
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="6">
-        <v>81025002</v>
+        <v>81024001</v>
       </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
     <row r="81" spans="1:14" ht="16.5">
       <c r="A81" s="3">
-        <v>8102600</v>
+        <v>8102500</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="6" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
     <row r="82" spans="1:14" ht="16.5">
-      <c r="A82" s="9">
+      <c r="A82" s="3">
+        <v>8102501</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>100</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="6">
+        <v>81025002</v>
+      </c>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.5">
+      <c r="A83" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="1:14" ht="16.5">
+      <c r="A84" s="9">
         <v>8102700</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B84" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D84" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9">
-        <v>100</v>
-      </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="10">
+      <c r="E84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9">
+        <v>100</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10">
         <v>81027000</v>
       </c>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-    </row>
-    <row r="83" spans="1:14" ht="16.5">
-      <c r="A83" s="9">
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" spans="1:14" ht="16.5">
+      <c r="A85" s="9">
         <v>8102800</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9">
-        <v>100</v>
-      </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="10">
+      <c r="E85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9">
+        <v>100</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10">
         <v>81028000</v>
       </c>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-    </row>
-    <row r="84" spans="1:14" ht="16.5">
-      <c r="A84" s="3">
-        <v>8102900</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3">
-        <v>100</v>
-      </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-    </row>
-    <row r="85" spans="1:14" ht="16.5">
-      <c r="A85" s="3">
-        <v>8103000</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3">
-        <v>100</v>
-      </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="6">
-        <v>81030000</v>
-      </c>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
     </row>
     <row r="86" spans="1:14" ht="16.5">
       <c r="A86" s="3">
-        <v>8103100</v>
+        <v>8102900</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="3">
-        <v>1</v>
-      </c>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3">
         <v>100</v>
       </c>
       <c r="K86" s="3"/>
-      <c r="L86" s="6">
-        <v>81031000</v>
+      <c r="L86" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
     </row>
     <row r="87" spans="1:14" ht="16.5">
       <c r="A87" s="3">
-        <v>8103200</v>
+        <v>8103000</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
         <v>100</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="6">
-        <v>81032000</v>
+        <v>81030000</v>
       </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" s="18" customFormat="1" ht="16.5">
-      <c r="A88" s="16">
-        <v>8103300</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="16" t="s">
+    <row r="88" spans="1:14" ht="16.5">
+      <c r="A88" s="3">
+        <v>8103100</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="16">
-        <v>2</v>
-      </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16">
-        <v>1</v>
-      </c>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16">
-        <v>100</v>
-      </c>
-      <c r="K88" s="16"/>
-      <c r="L88" s="17">
-        <v>81033000</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="N88" s="17">
-        <v>8103301</v>
-      </c>
+      <c r="E88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <v>100</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="6">
+        <v>81031000</v>
+      </c>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
     </row>
     <row r="89" spans="1:14" ht="16.5">
       <c r="A89" s="3">
-        <v>8103301</v>
+        <v>8103200</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>10</v>
@@ -4092,8 +4088,8 @@
       <c r="E89" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>138</v>
+      <c r="F89" s="3">
+        <v>1</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3">
@@ -4105,77 +4101,89 @@
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="6">
-        <v>81033001</v>
+        <v>81032000</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" ht="16.5">
-      <c r="A90" s="3">
-        <v>8103400</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3">
-        <v>100</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="6">
-        <v>81034000</v>
-      </c>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
+    <row r="90" spans="1:14" s="18" customFormat="1" ht="16.5">
+      <c r="A90" s="16">
+        <v>8103300</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="16">
+        <v>2</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16">
+        <v>1</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16">
+        <v>100</v>
+      </c>
+      <c r="K90" s="16"/>
+      <c r="L90" s="17">
+        <v>81033000</v>
+      </c>
+      <c r="M90" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N90" s="17">
+        <v>8103301</v>
+      </c>
     </row>
     <row r="91" spans="1:14" ht="16.5">
       <c r="A91" s="3">
-        <v>8103401</v>
+        <v>8103301</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="4"/>
+      <c r="K91" s="3"/>
       <c r="L91" s="6">
-        <v>81034001</v>
+        <v>81033001</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
     </row>
     <row r="92" spans="1:14" ht="16.5">
       <c r="A92" s="3">
-        <v>8103500</v>
+        <v>8103400</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>41</v>
@@ -4195,23 +4203,23 @@
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="6">
-        <v>81035000</v>
+        <v>81034000</v>
       </c>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
     <row r="93" spans="1:14" ht="16.5">
       <c r="A93" s="3">
-        <v>8103501</v>
+        <v>8103401</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>11</v>
@@ -4223,25 +4231,25 @@
       <c r="J93" s="3">
         <v>100</v>
       </c>
-      <c r="K93" s="3"/>
+      <c r="K93" s="4"/>
       <c r="L93" s="6">
-        <v>81035001</v>
+        <v>81034001</v>
       </c>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
     </row>
     <row r="94" spans="1:14" ht="16.5">
       <c r="A94" s="3">
-        <v>8103700</v>
+        <v>8103500</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>11</v>
@@ -4253,19 +4261,19 @@
       <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="4"/>
+      <c r="K94" s="3"/>
       <c r="L94" s="6">
-        <v>81037000</v>
+        <v>81035000</v>
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
     <row r="95" spans="1:14" ht="16.5">
       <c r="A95" s="3">
-        <v>8103701</v>
+        <v>8103501</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>41</v>
@@ -4285,92 +4293,80 @@
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="6">
-        <v>81037001</v>
+        <v>81035001</v>
       </c>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
     <row r="96" spans="1:14" ht="16.5">
       <c r="A96" s="3">
-        <v>8103800</v>
+        <v>8103700</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
+      <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3">
-        <v>3</v>
-      </c>
+      <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3"/>
+      <c r="K96" s="4"/>
       <c r="L96" s="6">
-        <v>81038000</v>
+        <v>81037000</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
     <row r="97" spans="1:14" ht="16.5">
       <c r="A97" s="3">
-        <v>8103900</v>
+        <v>8103701</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>16</v>
+        <v>147</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="3">
-        <v>2</v>
-      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="3">
-        <v>1</v>
-      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3">
         <v>100</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="6">
-        <v>81039000</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N97" s="6">
-        <v>8103901</v>
-      </c>
+        <v>81037001</v>
+      </c>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
     </row>
     <row r="98" spans="1:14" ht="16.5">
       <c r="A98" s="3">
-        <v>8103901</v>
+        <v>8103800</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>10</v>
@@ -4378,12 +4374,12 @@
       <c r="E98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>138</v>
+      <c r="F98" s="3">
+        <v>1</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3">
@@ -4391,47 +4387,55 @@
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="6">
-        <v>81039001</v>
+        <v>81038000</v>
       </c>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
     </row>
     <row r="99" spans="1:14" ht="16.5">
       <c r="A99" s="3">
-        <v>8104000</v>
+        <v>8103900</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>41</v>
+        <v>149</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3">
         <v>100</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="6">
-        <v>81040000</v>
-      </c>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
+        <v>81039000</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N99" s="6">
+        <v>8103901</v>
+      </c>
     </row>
     <row r="100" spans="1:14" ht="16.5">
       <c r="A100" s="3">
-        <v>8104100</v>
+        <v>8103901</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>16</v>
@@ -4442,8 +4446,8 @@
       <c r="E100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="3">
-        <v>2</v>
+      <c r="F100" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
@@ -4455,51 +4459,47 @@
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="6">
-        <v>81041000</v>
+        <v>81039001</v>
       </c>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
     </row>
     <row r="101" spans="1:14" ht="16.5">
       <c r="A101" s="3">
-        <v>8104200</v>
+        <v>8104000</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
+      <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="6">
-        <v>81042000</v>
+        <v>81040000</v>
       </c>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
     </row>
     <row r="102" spans="1:14" ht="16.5">
       <c r="A102" s="3">
-        <v>8104300</v>
+        <v>8104100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>16</v>
@@ -4510,14 +4510,12 @@
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G102" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F102" s="3">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3"/>
       <c r="H102" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
@@ -4525,124 +4523,126 @@
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="6">
-        <v>81043000</v>
+        <v>81041000</v>
       </c>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
     <row r="103" spans="1:14" ht="16.5">
       <c r="A103" s="3">
-        <v>8104400</v>
+        <v>8104200</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3">
         <v>100</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="6">
-        <v>81044000</v>
+        <v>81042000</v>
       </c>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
     <row r="104" spans="1:14" ht="16.5">
       <c r="A104" s="3">
-        <v>8104500</v>
+        <v>8104300</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H104" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3">
         <v>100</v>
       </c>
-      <c r="K104" s="4"/>
+      <c r="K104" s="3"/>
       <c r="L104" s="6">
-        <v>81045000</v>
+        <v>81043000</v>
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
     </row>
     <row r="105" spans="1:14" ht="16.5">
       <c r="A105" s="3">
-        <v>8104600</v>
+        <v>8104400</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="3">
-        <v>1</v>
-      </c>
+      <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3">
         <v>100</v>
       </c>
-      <c r="K105" s="4"/>
+      <c r="K105" s="3"/>
       <c r="L105" s="6">
-        <v>81046000</v>
+        <v>81044000</v>
       </c>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
     </row>
     <row r="106" spans="1:14" ht="16.5">
       <c r="A106" s="3">
-        <v>8104601</v>
+        <v>8104500</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -4657,56 +4657,60 @@
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="6">
-        <v>81046001</v>
+        <v>81045000</v>
       </c>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
     </row>
     <row r="107" spans="1:14" ht="16.5">
       <c r="A107" s="3">
-        <v>8104700</v>
+        <v>8104600</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3">
         <v>100</v>
       </c>
-      <c r="K107" s="3"/>
+      <c r="K107" s="4"/>
       <c r="L107" s="6">
-        <v>81047000</v>
+        <v>81046000</v>
       </c>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
     </row>
     <row r="108" spans="1:14" ht="16.5">
       <c r="A108" s="3">
-        <v>8104800</v>
+        <v>8104601</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -4719,55 +4723,49 @@
       <c r="J108" s="3">
         <v>100</v>
       </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3">
-        <v>81048000</v>
+      <c r="K108" s="4"/>
+      <c r="L108" s="6">
+        <v>81046001</v>
       </c>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
     </row>
     <row r="109" spans="1:14" ht="16.5">
       <c r="A109" s="3">
-        <v>8104801</v>
+        <v>8104700</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G109" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="3">
-        <v>1</v>
-      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3">
         <v>100</v>
       </c>
       <c r="K109" s="3"/>
-      <c r="L109" s="3">
-        <v>81048001</v>
+      <c r="L109" s="6">
+        <v>81047000</v>
       </c>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
     </row>
     <row r="110" spans="1:14" ht="16.5">
       <c r="A110" s="3">
-        <v>8104900</v>
+        <v>8104800</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>9</v>
@@ -4790,84 +4788,94 @@
         <v>100</v>
       </c>
       <c r="K110" s="3"/>
-      <c r="L110" s="6">
-        <v>81049000</v>
+      <c r="L110" s="3">
+        <v>81048000</v>
       </c>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
     </row>
     <row r="111" spans="1:14" ht="16.5">
       <c r="A111" s="3">
-        <v>8104901</v>
+        <v>8104801</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3">
         <v>100</v>
       </c>
       <c r="K111" s="3"/>
-      <c r="L111" s="6">
-        <v>81049001</v>
+      <c r="L111" s="3">
+        <v>81048001</v>
       </c>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
     </row>
     <row r="112" spans="1:14" ht="16.5">
       <c r="A112" s="3">
-        <v>8104902</v>
+        <v>8104900</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3">
         <v>100</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="6">
-        <v>81049002</v>
+        <v>81049000</v>
       </c>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
     </row>
     <row r="113" spans="1:14" ht="16.5">
       <c r="A113" s="3">
-        <v>8105000</v>
+        <v>8104901</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>11</v>
@@ -4880,18 +4888,18 @@
         <v>100</v>
       </c>
       <c r="K113" s="3"/>
-      <c r="L113" s="6" t="s">
-        <v>173</v>
+      <c r="L113" s="6">
+        <v>81049001</v>
       </c>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
     </row>
     <row r="114" spans="1:14" ht="16.5">
       <c r="A114" s="3">
-        <v>8105300</v>
+        <v>8104902</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>41</v>
@@ -4910,18 +4918,18 @@
         <v>100</v>
       </c>
       <c r="K114" s="3"/>
-      <c r="L114" s="3">
-        <v>81053000</v>
+      <c r="L114" s="6">
+        <v>81049002</v>
       </c>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
     </row>
     <row r="115" spans="1:14" ht="16.5">
       <c r="A115" s="3">
-        <v>8105301</v>
+        <v>8105000</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>41</v>
@@ -4940,11 +4948,71 @@
         <v>100</v>
       </c>
       <c r="K115" s="3"/>
-      <c r="L115" s="3" t="s">
-        <v>176</v>
+      <c r="L115" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="1:14" ht="16.5">
+      <c r="A116" s="3">
+        <v>8105300</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3">
+        <v>100</v>
+      </c>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3">
+        <v>81053000</v>
+      </c>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="117" spans="1:14" ht="16.5">
+      <c r="A117" s="3">
+        <v>8105301</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3">
+        <v>100</v>
+      </c>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E6741-FA4B-4241-8B56-F39455DD106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057113E2-80BB-486D-A83C-1B9CFB9418E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="184">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -686,6 +686,26 @@
   </si>
   <si>
     <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_만복도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81054001, 81054002, 81054003, 81054004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 슬라임 근거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 슬라임 흡혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,11 +1222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1222,7 +1242,8 @@
     <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1"/>
     <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.25" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -2504,7 +2525,7 @@
         <v>100</v>
       </c>
       <c r="K39" s="11"/>
-      <c r="L39" s="11">
+      <c r="L39" s="12">
         <v>99991000</v>
       </c>
       <c r="M39" s="12"/>
@@ -2534,7 +2555,7 @@
         <v>100</v>
       </c>
       <c r="K40" s="11"/>
-      <c r="L40" s="11">
+      <c r="L40" s="12">
         <v>99992000</v>
       </c>
       <c r="M40" s="12"/>
@@ -2564,7 +2585,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="11"/>
-      <c r="L41" s="11">
+      <c r="L41" s="12">
         <v>99993000</v>
       </c>
       <c r="M41" s="12"/>
@@ -2594,7 +2615,7 @@
         <v>100</v>
       </c>
       <c r="K42" s="11"/>
-      <c r="L42" s="11">
+      <c r="L42" s="12">
         <v>99994000</v>
       </c>
       <c r="M42" s="12"/>
@@ -2624,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="16"/>
-      <c r="L43" s="16">
+      <c r="L43" s="17">
         <v>99995000</v>
       </c>
       <c r="M43" s="17"/>
@@ -2654,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="16"/>
-      <c r="L44" s="16">
+      <c r="L44" s="17">
         <v>99996000</v>
       </c>
       <c r="M44" s="17"/>
@@ -2684,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="16"/>
-      <c r="L45" s="16">
+      <c r="L45" s="17">
         <v>99997000</v>
       </c>
       <c r="M45" s="17"/>
@@ -2714,7 +2735,7 @@
         <v>100</v>
       </c>
       <c r="K46" s="16"/>
-      <c r="L46" s="16">
+      <c r="L46" s="17">
         <v>99998000</v>
       </c>
       <c r="M46" s="17"/>
@@ -4788,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="K110" s="3"/>
-      <c r="L110" s="3">
+      <c r="L110" s="6">
         <v>81048000</v>
       </c>
       <c r="M110" s="6"/>
@@ -4824,7 +4845,7 @@
         <v>100</v>
       </c>
       <c r="K111" s="3"/>
-      <c r="L111" s="3">
+      <c r="L111" s="6">
         <v>81048001</v>
       </c>
       <c r="M111" s="6"/>
@@ -4978,7 +4999,7 @@
         <v>100</v>
       </c>
       <c r="K116" s="3"/>
-      <c r="L116" s="3">
+      <c r="L116" s="6">
         <v>81053000</v>
       </c>
       <c r="M116" s="6"/>
@@ -5008,11 +5029,139 @@
         <v>100</v>
       </c>
       <c r="K117" s="3"/>
-      <c r="L117" s="3" t="s">
+      <c r="L117" s="6" t="s">
         <v>176</v>
       </c>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
+    </row>
+    <row r="118" spans="1:14" ht="16.5">
+      <c r="A118" s="3">
+        <v>8105400</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <v>100</v>
+      </c>
+      <c r="K118" s="3"/>
+      <c r="L118" s="6">
+        <v>81054000</v>
+      </c>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+    </row>
+    <row r="119" spans="1:14" ht="33">
+      <c r="A119" s="3">
+        <v>8105401</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <v>100</v>
+      </c>
+      <c r="K119" s="3"/>
+      <c r="L119" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="120" spans="1:14" ht="16.5">
+      <c r="A120" s="3">
+        <v>8105500</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3">
+        <v>100</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="L120" s="6">
+        <v>81055000</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N120" s="3">
+        <v>8105501</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="16.5">
+      <c r="A121" s="3">
+        <v>8105501</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3">
+        <v>100</v>
+      </c>
+      <c r="K121" s="3"/>
+      <c r="L121" s="6">
+        <v>81055001</v>
+      </c>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057113E2-80BB-486D-A83C-1B9CFB9418E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E78F30-8097-403A-97A3-9EA080F05F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="190">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -706,6 +706,28 @@
   </si>
   <si>
     <t>위액 슬라임 흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출</t>
+  </si>
+  <si>
+    <t>후라이팬</t>
+  </si>
+  <si>
+    <t>Friendly Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81051000, 81051001, 81051002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81052000, 81052001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,11 +1244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4977,16 +4999,16 @@
     </row>
     <row r="116" spans="1:14" ht="16.5">
       <c r="A116" s="3">
-        <v>8105300</v>
+        <v>8105100</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>11</v>
@@ -4999,48 +5021,52 @@
         <v>100</v>
       </c>
       <c r="K116" s="3"/>
-      <c r="L116" s="6">
-        <v>81053000</v>
+      <c r="L116" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
     </row>
     <row r="117" spans="1:14" ht="16.5">
       <c r="A117" s="3">
-        <v>8105301</v>
+        <v>8105200</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="3"/>
+      <c r="F117" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3">
         <v>100</v>
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
     </row>
     <row r="118" spans="1:14" ht="16.5">
       <c r="A118" s="3">
-        <v>8105400</v>
+        <v>8105300</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>41</v>
@@ -5060,17 +5086,17 @@
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="6">
-        <v>81054000</v>
+        <v>81053000</v>
       </c>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" ht="33">
+    <row r="119" spans="1:14" ht="16.5">
       <c r="A119" s="3">
-        <v>8105401</v>
+        <v>8105301</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>41</v>
@@ -5090,55 +5116,47 @@
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
     </row>
     <row r="120" spans="1:14" ht="16.5">
       <c r="A120" s="3">
-        <v>8105500</v>
+        <v>8105400</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
+      <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="3">
-        <v>1</v>
-      </c>
+      <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3">
         <v>100</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="6">
-        <v>81055000</v>
-      </c>
-      <c r="M120" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N120" s="3">
-        <v>8105501</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="16.5">
+        <v>81054000</v>
+      </c>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+    </row>
+    <row r="121" spans="1:14" ht="33">
       <c r="A121" s="3">
-        <v>8105501</v>
+        <v>8105401</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>41</v>
@@ -5157,11 +5175,79 @@
         <v>100</v>
       </c>
       <c r="K121" s="3"/>
-      <c r="L121" s="6">
-        <v>81055001</v>
+      <c r="L121" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="1:14" ht="16.5">
+      <c r="A122" s="3">
+        <v>8105500</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3">
+        <v>100</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="6">
+        <v>81055000</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N122" s="3">
+        <v>8105501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="16.5">
+      <c r="A123" s="3">
+        <v>8105501</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3">
+        <v>100</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="L123" s="6">
+        <v>81055001</v>
+      </c>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E78F30-8097-403A-97A3-9EA080F05F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F055623-68B8-48AC-9FDF-E211248F5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="194">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -728,6 +728,20 @@
   </si>
   <si>
     <t>81052000, 81052001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽마_스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <t>전투준비</t>
+  </si>
+  <si>
+    <t>81058000, 81058001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,11 +1258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5249,6 +5263,100 @@
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
     </row>
+    <row r="124" spans="1:14" ht="16.5">
+      <c r="A124" s="3">
+        <v>8105600</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3">
+        <v>100</v>
+      </c>
+      <c r="K124" s="3"/>
+      <c r="L124" s="6">
+        <v>81056000</v>
+      </c>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+    </row>
+    <row r="125" spans="1:14" ht="16.5">
+      <c r="A125" s="3">
+        <v>8105700</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3">
+        <v>100</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="L125" s="6">
+        <v>81057000</v>
+      </c>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+    </row>
+    <row r="126" spans="1:14" ht="16.5">
+      <c r="A126" s="3">
+        <v>8105800</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3">
+        <v>100</v>
+      </c>
+      <c r="K126" s="3"/>
+      <c r="L126" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F055623-68B8-48AC-9FDF-E211248F5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173E48F3-94D8-4A85-B4E2-59EA94320FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="198">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -742,6 +742,20 @@
   </si>
   <si>
     <t>81058000, 81058001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식욕 폭발</t>
+  </si>
+  <si>
+    <t>공허의 바다</t>
+  </si>
+  <si>
+    <t>81059000, 81059001, 81059002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허의 바다_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I132" sqref="I132"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5357,6 +5371,100 @@
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
     </row>
+    <row r="127" spans="1:14" ht="16.5">
+      <c r="A127" s="3">
+        <v>8105900</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <v>100</v>
+      </c>
+      <c r="K127" s="3"/>
+      <c r="L127" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+    </row>
+    <row r="128" spans="1:14" ht="16.5">
+      <c r="A128" s="3">
+        <v>8106000</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3">
+        <v>100</v>
+      </c>
+      <c r="K128" s="3"/>
+      <c r="L128" s="6">
+        <v>81060000</v>
+      </c>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+    </row>
+    <row r="129" spans="1:14" ht="16.5">
+      <c r="A129" s="3">
+        <v>8106001</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3">
+        <v>100</v>
+      </c>
+      <c r="K129" s="3"/>
+      <c r="L129" s="6">
+        <v>81060001</v>
+      </c>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173E48F3-94D8-4A85-B4E2-59EA94320FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCB7819-E080-4CA4-B4E2-0106C0DC5A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="204">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -757,6 +757,26 @@
   <si>
     <t>공허의 바다_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>81062000, 81062001, 81062002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81063000, 81063001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만찬</t>
+  </si>
+  <si>
+    <t>재료손질</t>
+  </si>
+  <si>
+    <t>꼬치구이</t>
   </si>
 </sst>
 </file>
@@ -1272,11 +1292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L133" sqref="L133"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2772,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>11</v>
@@ -5464,6 +5484,110 @@
       </c>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
+    </row>
+    <row r="130" spans="1:14" ht="16.5">
+      <c r="A130" s="3">
+        <v>8106100</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3">
+        <v>100</v>
+      </c>
+      <c r="K130" s="3"/>
+      <c r="L130" s="6">
+        <v>81061000</v>
+      </c>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+    </row>
+    <row r="131" spans="1:14" ht="16.5">
+      <c r="A131" s="3">
+        <v>8106200</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3">
+        <v>100</v>
+      </c>
+      <c r="K131" s="3"/>
+      <c r="L131" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+    </row>
+    <row r="132" spans="1:14" ht="16.5">
+      <c r="A132" s="3">
+        <v>8106300</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3">
+        <v>100</v>
+      </c>
+      <c r="K132" s="3"/>
+      <c r="L132" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCB7819-E080-4CA4-B4E2-0106C0DC5A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9859FF8-81CE-448A-8B5A-4CD8D9F7DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="206">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -777,6 +777,14 @@
   </si>
   <si>
     <t>꼬치구이</t>
+  </si>
+  <si>
+    <t>소룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81064000, 81064001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1292,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <selection pane="bottomLeft" activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5589,6 +5597,36 @@
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
     </row>
+    <row r="133" spans="1:14" ht="16.5">
+      <c r="A133" s="3">
+        <v>8106400</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3">
+        <v>100</v>
+      </c>
+      <c r="K133" s="3"/>
+      <c r="L133" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9859FF8-81CE-448A-8B5A-4CD8D9F7DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5427731-16CE-4036-A8F1-013C2F01919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="208">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -784,6 +784,14 @@
   </si>
   <si>
     <t>81064000, 81064001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어삼키기_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어삼키기_만복도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L136" sqref="L136"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5627,6 +5635,74 @@
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
     </row>
+    <row r="134" spans="1:14" ht="16.5">
+      <c r="A134" s="3">
+        <v>8106500</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3">
+        <v>3</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3">
+        <v>100</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="6">
+        <v>81065000</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N134" s="3">
+        <v>8106501</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="16.5">
+      <c r="A135" s="3">
+        <v>8106501</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3">
+        <v>100</v>
+      </c>
+      <c r="K135" s="3"/>
+      <c r="L135" s="6">
+        <v>81065001</v>
+      </c>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5427731-16CE-4036-A8F1-013C2F01919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A39B8-07A1-4CC1-B60F-125DAB060B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="211">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -792,6 +792,18 @@
   </si>
   <si>
     <t>집어삼키기_만복도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지독한숙취_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지독한숙취_구토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿰뚫는일격_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,11 +1320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5703,6 +5715,106 @@
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
     </row>
+    <row r="136" spans="1:14" ht="16.5">
+      <c r="A136" s="3">
+        <v>8106600</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3">
+        <v>100</v>
+      </c>
+      <c r="K136" s="3"/>
+      <c r="L136" s="6">
+        <v>81066000</v>
+      </c>
+      <c r="M136" s="6"/>
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" ht="16.5">
+      <c r="A137" s="3">
+        <v>8106601</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3">
+        <v>100</v>
+      </c>
+      <c r="K137" s="3"/>
+      <c r="L137" s="6">
+        <v>81066001</v>
+      </c>
+      <c r="M137" s="6"/>
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" ht="16.5">
+      <c r="A138" s="3">
+        <v>8106700</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G138" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3">
+        <v>2</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3">
+        <v>100</v>
+      </c>
+      <c r="K138" s="3"/>
+      <c r="L138" s="6">
+        <v>81067000</v>
+      </c>
+      <c r="M138" s="6"/>
+      <c r="N138" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A39B8-07A1-4CC1-B60F-125DAB060B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599ECE4-D8AA-4898-BC15-978A96BDABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="213">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -805,6 +805,12 @@
   <si>
     <t>꿰뚫는일격_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의장막</t>
+  </si>
+  <si>
+    <t>마왕의비수</t>
   </si>
 </sst>
 </file>
@@ -1320,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5815,6 +5821,66 @@
       <c r="M138" s="6"/>
       <c r="N138" s="3"/>
     </row>
+    <row r="139" spans="1:14" ht="16.5">
+      <c r="A139" s="3">
+        <v>8106800</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3">
+        <v>100</v>
+      </c>
+      <c r="K139" s="3"/>
+      <c r="L139" s="6">
+        <v>81068000</v>
+      </c>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+    </row>
+    <row r="140" spans="1:14" ht="16.5">
+      <c r="A140" s="3">
+        <v>8106900</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3">
+        <v>100</v>
+      </c>
+      <c r="K140" s="3"/>
+      <c r="L140" s="6">
+        <v>81069000</v>
+      </c>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599ECE4-D8AA-4898-BC15-978A96BDABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6562CE-9155-4C92-BFC2-4A2780086957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="215">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -811,6 +811,14 @@
   </si>
   <si>
     <t>마왕의비수</t>
+  </si>
+  <si>
+    <t>마왕의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81070000, 81070001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1326,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
+      <selection pane="bottomLeft" activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5881,6 +5889,36 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
     </row>
+    <row r="141" spans="1:14" ht="16.5">
+      <c r="A141" s="3">
+        <v>8107000</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3">
+        <v>100</v>
+      </c>
+      <c r="K141" s="3"/>
+      <c r="L141" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6562CE-9155-4C92-BFC2-4A2780086957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903AA0A4-F31B-40C0-9824-B8B73AB4F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="217">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -818,6 +818,14 @@
   </si>
   <si>
     <t>81070000, 81070001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전소화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81071000, 81071001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L142" sqref="L142"/>
+      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5919,6 +5927,36 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
     </row>
+    <row r="142" spans="1:14" ht="16.5">
+      <c r="A142" s="3">
+        <v>8107100</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3">
+        <v>100</v>
+      </c>
+      <c r="K142" s="3"/>
+      <c r="L142" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903AA0A4-F31B-40C0-9824-B8B73AB4F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A399E2F-0933-4F7B-A98C-659137A349E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="220">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -826,6 +826,18 @@
   </si>
   <si>
     <t>81071000, 81071001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액분비_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액분비_방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부패의숨결_방어력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,11 +1354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -5957,6 +5969,104 @@
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
     </row>
+    <row r="143" spans="1:14" ht="16.5">
+      <c r="A143" s="3">
+        <v>8107200</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3">
+        <v>100</v>
+      </c>
+      <c r="K143" s="4"/>
+      <c r="L143" s="6">
+        <v>81072000</v>
+      </c>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+    </row>
+    <row r="144" spans="1:14" ht="16.5">
+      <c r="A144" s="3">
+        <v>8107300</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3">
+        <v>100</v>
+      </c>
+      <c r="K144" s="4"/>
+      <c r="L144" s="6">
+        <v>81073000</v>
+      </c>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+    </row>
+    <row r="145" spans="1:14" ht="16.5">
+      <c r="A145" s="3">
+        <v>8107301</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3">
+        <v>100</v>
+      </c>
+      <c r="K145" s="4"/>
+      <c r="L145" s="6">
+        <v>81073001</v>
+      </c>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A399E2F-0933-4F7B-A98C-659137A349E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527102B-6C8E-4AD5-A03B-CAF4D565E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="223">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -838,6 +838,16 @@
   </si>
   <si>
     <t>부패의숨결_방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+  </si>
+  <si>
+    <t>조명탄</t>
+  </si>
+  <si>
+    <t>81074000, 81074001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,11 +1364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomLeft" activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6067,6 +6077,68 @@
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
     </row>
+    <row r="146" spans="1:14" ht="16.5">
+      <c r="A146" s="3">
+        <v>8107400</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3">
+        <v>100</v>
+      </c>
+      <c r="K146" s="3"/>
+      <c r="L146" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+    </row>
+    <row r="147" spans="1:14" ht="16.5">
+      <c r="A147" s="3">
+        <v>8107500</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3">
+        <v>100</v>
+      </c>
+      <c r="K147" s="4"/>
+      <c r="L147" s="6">
+        <v>81075000</v>
+      </c>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiData.xlsx
+++ b/Assets/ERang/Excels/AiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527102B-6C8E-4AD5-A03B-CAF4D565E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D0F00-02DD-48EA-8E31-40C5C76B89F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="224">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -848,6 +848,10 @@
   </si>
   <si>
     <t>81074000, 81074001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금고블린_황금채굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L148" sqref="L148"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6139,6 +6143,36 @@
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
     </row>
+    <row r="148" spans="1:14" ht="16.5">
+      <c r="A148" s="3">
+        <v>8107600</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3">
+        <v>100</v>
+      </c>
+      <c r="K148" s="3"/>
+      <c r="L148" s="6">
+        <v>81076000</v>
+      </c>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
